--- a/TESTCASES/MSD_Project_Notes_Updated.xlsx
+++ b/TESTCASES/MSD_Project_Notes_Updated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSD\PDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSD\PROJECT1\MSD\TESTCASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8AB044-A16F-47E8-9B78-E7A5523ED763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0DF737-0125-4130-A7F2-6AD0A732D2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FCDD92B1-2F49-4B23-9115-79F9BBEC6A93}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="162">
   <si>
     <t>ROW</t>
   </si>
@@ -516,11 +516,18 @@
     <t>Scenario25</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Accesses to same row in same bank and bankgroup
 (5th and 21st) and no request has happened to this bank  inbetween</t>
+  </si>
+  <si>
+    <t>Write to same row in same bank and bankgroup
+(5th and 21st) and no request has happened to this bank  inbetween</t>
+  </si>
+  <si>
+    <t>When request time is very higher(1000) compared to simulation time(50)(next request comes at a high request time)</t>
+  </si>
+  <si>
+    <t>Consecutive requests for the same bank and bankgroup will wait till the first request is completed</t>
   </si>
 </sst>
 </file>
@@ -1047,6 +1054,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1076,12 +1089,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,14 +1434,14 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="E2" s="39" t="s">
+      <c r="C2" s="40"/>
+      <c r="E2" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="40"/>
+      <c r="F2" s="42"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1849,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00540E82-C942-4C51-B076-78D9BC70138E}">
   <dimension ref="B1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1899,55 +1906,55 @@
       <c r="C2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="41">
-        <v>1</v>
-      </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="41">
+      <c r="G2" s="43">
+        <v>1</v>
+      </c>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="43">
         <v>2</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="41">
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="43">
         <v>3</v>
       </c>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="46"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
     </row>
     <row r="3" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="33" t="s">
         <v>128</v>
       </c>
@@ -3124,7 +3131,7 @@
       <c r="E21" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="37" t="s">
         <v>152</v>
       </c>
       <c r="G21" s="21">
@@ -3151,8 +3158,8 @@
       <c r="N21" s="19">
         <v>1</v>
       </c>
-      <c r="O21" s="19" t="s">
-        <v>158</v>
+      <c r="O21" s="19">
+        <v>102</v>
       </c>
       <c r="P21" s="19">
         <v>128</v>
@@ -3248,8 +3255,8 @@
       <c r="E23" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="48" t="s">
-        <v>159</v>
+      <c r="F23" s="38" t="s">
+        <v>158</v>
       </c>
       <c r="G23" s="30">
         <v>0</v>
@@ -3282,7 +3289,7 @@
         <v>128</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R23" s="32">
         <v>11</v>
@@ -3306,83 +3313,197 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-      <c r="W24" s="19"/>
-      <c r="X24" s="22"/>
-    </row>
-    <row r="25" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="30">
+        <v>0</v>
+      </c>
+      <c r="H24" s="31">
+        <v>1</v>
+      </c>
+      <c r="I24" s="31">
+        <v>100</v>
+      </c>
+      <c r="J24" s="31">
+        <v>128</v>
+      </c>
+      <c r="K24" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="L24" s="32">
+        <v>10</v>
+      </c>
+      <c r="M24" s="30">
+        <v>0</v>
+      </c>
+      <c r="N24" s="31">
+        <v>2</v>
+      </c>
+      <c r="O24" s="31">
+        <v>100</v>
+      </c>
+      <c r="P24" s="31">
+        <v>128</v>
+      </c>
+      <c r="Q24" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="R24" s="32">
+        <v>11</v>
+      </c>
+      <c r="S24" s="30">
+        <v>0</v>
+      </c>
+      <c r="T24" s="31">
+        <v>1</v>
+      </c>
+      <c r="U24" s="31">
+        <v>100</v>
+      </c>
+      <c r="V24" s="31">
+        <v>128</v>
+      </c>
+      <c r="W24" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="X24" s="32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="5:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E25" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="19"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-      <c r="W25" s="19"/>
-      <c r="X25" s="22"/>
-    </row>
-    <row r="26" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="30">
+        <v>0</v>
+      </c>
+      <c r="H25" s="31">
+        <v>1</v>
+      </c>
+      <c r="I25" s="31">
+        <v>100</v>
+      </c>
+      <c r="J25" s="31">
+        <v>128</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="32">
+        <v>50</v>
+      </c>
+      <c r="M25" s="30">
+        <v>0</v>
+      </c>
+      <c r="N25" s="31">
+        <v>2</v>
+      </c>
+      <c r="O25" s="31">
+        <v>100</v>
+      </c>
+      <c r="P25" s="31">
+        <v>128</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="R25" s="32">
+        <v>1000</v>
+      </c>
+      <c r="S25" s="30">
+        <v>0</v>
+      </c>
+      <c r="T25" s="31">
+        <v>1</v>
+      </c>
+      <c r="U25" s="31">
+        <v>100</v>
+      </c>
+      <c r="V25" s="31">
+        <v>128</v>
+      </c>
+      <c r="W25" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="X25" s="32">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="26" spans="5:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="19"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-      <c r="W26" s="19"/>
-      <c r="X26" s="22"/>
+      <c r="F26" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" s="21">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
+        <v>1</v>
+      </c>
+      <c r="I26" s="19">
+        <v>100</v>
+      </c>
+      <c r="J26" s="19">
+        <v>128</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26" s="22">
+        <v>20</v>
+      </c>
+      <c r="M26" s="23">
+        <v>0</v>
+      </c>
+      <c r="N26" s="19">
+        <v>1</v>
+      </c>
+      <c r="O26" s="19">
+        <v>102</v>
+      </c>
+      <c r="P26" s="19">
+        <v>128</v>
+      </c>
+      <c r="Q26" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="R26" s="22">
+        <v>21</v>
+      </c>
+      <c r="S26" s="21">
+        <v>0</v>
+      </c>
+      <c r="T26" s="19">
+        <v>2</v>
+      </c>
+      <c r="U26" s="19">
+        <v>100</v>
+      </c>
+      <c r="V26" s="19">
+        <v>255</v>
+      </c>
+      <c r="W26" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="X26" s="22">
+        <v>22</v>
+      </c>
     </row>
     <row r="27" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="F27" s="47"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="21"/>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -3406,7 +3527,7 @@
       <c r="E28" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="47"/>
+      <c r="F28" s="37"/>
       <c r="G28" s="21"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>

--- a/TESTCASES/MSD_Project_Notes_Updated.xlsx
+++ b/TESTCASES/MSD_Project_Notes_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSD\PROJECT1\MSD\TESTCASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0DF737-0125-4130-A7F2-6AD0A732D2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F735F755-EADC-4E12-AA26-B98BE90E2ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FCDD92B1-2F49-4B23-9115-79F9BBEC6A93}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="169">
   <si>
     <t>ROW</t>
   </si>
@@ -524,10 +524,31 @@
 (5th and 21st) and no request has happened to this bank  inbetween</t>
   </si>
   <si>
-    <t>When request time is very higher(1000) compared to simulation time(50)(next request comes at a high request time)</t>
-  </si>
-  <si>
     <t>Consecutive requests for the same bank and bankgroup will wait till the first request is completed</t>
+  </si>
+  <si>
+    <t>When request time is very higher(1000) compared to simulation time(50) and queue is not full(next request comes at a high request time)</t>
+  </si>
+  <si>
+    <t>Write and read rows in same bankgroup and bank</t>
+  </si>
+  <si>
+    <t>Write and read rows in different bankgroups and bank</t>
+  </si>
+  <si>
+    <t>Scenario26</t>
+  </si>
+  <si>
+    <t>Scenario27</t>
+  </si>
+  <si>
+    <t>Scenario28</t>
+  </si>
+  <si>
+    <t>Scenario29</t>
+  </si>
+  <si>
+    <t>Scenario30</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1428,7 @@
   <dimension ref="B1:R19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00540E82-C942-4C51-B076-78D9BC70138E}">
-  <dimension ref="B1:AJ28"/>
+  <dimension ref="B1:AJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,7 +2291,7 @@
         <v>128</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R7" s="22">
         <v>10</v>
@@ -3380,7 +3401,7 @@
         <v>154</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G25" s="30">
         <v>0</v>
@@ -3442,7 +3463,7 @@
         <v>155</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G26" s="21">
         <v>0</v>
@@ -3503,49 +3524,245 @@
       <c r="E27" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="22"/>
+      <c r="F27" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19">
+        <v>1</v>
+      </c>
+      <c r="I27" s="19">
+        <v>100</v>
+      </c>
+      <c r="J27" s="19">
+        <v>128</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L27" s="22">
+        <v>10</v>
+      </c>
+      <c r="M27" s="23">
+        <v>0</v>
+      </c>
+      <c r="N27" s="19">
+        <v>1</v>
+      </c>
+      <c r="O27" s="19">
+        <v>102</v>
+      </c>
+      <c r="P27" s="19">
+        <v>128</v>
+      </c>
+      <c r="Q27" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R27" s="22">
+        <v>21</v>
+      </c>
+      <c r="S27" s="21">
+        <v>0</v>
+      </c>
+      <c r="T27" s="19">
+        <v>1</v>
+      </c>
+      <c r="U27" s="19">
+        <v>104</v>
+      </c>
+      <c r="V27" s="19">
+        <v>128</v>
+      </c>
+      <c r="W27" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="X27" s="22">
+        <v>22</v>
+      </c>
     </row>
     <row r="28" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E28" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="22"/>
+      <c r="F28" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="21">
+        <v>0</v>
+      </c>
+      <c r="H28" s="19">
+        <v>1</v>
+      </c>
+      <c r="I28" s="19">
+        <v>100</v>
+      </c>
+      <c r="J28" s="19">
+        <v>128</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="L28" s="22">
+        <v>10</v>
+      </c>
+      <c r="M28" s="23">
+        <v>1</v>
+      </c>
+      <c r="N28" s="19">
+        <v>1</v>
+      </c>
+      <c r="O28" s="19">
+        <v>102</v>
+      </c>
+      <c r="P28" s="19">
+        <v>128</v>
+      </c>
+      <c r="Q28" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="R28" s="22">
+        <v>21</v>
+      </c>
+      <c r="S28" s="21">
+        <v>2</v>
+      </c>
+      <c r="T28" s="19">
+        <v>1</v>
+      </c>
+      <c r="U28" s="19">
+        <v>104</v>
+      </c>
+      <c r="V28" s="19">
+        <v>128</v>
+      </c>
+      <c r="W28" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="X28" s="22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="37"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="22"/>
+    </row>
+    <row r="30" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="F30" s="37"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="22"/>
+    </row>
+    <row r="31" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="37"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="22"/>
+    </row>
+    <row r="32" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="37"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="22"/>
+    </row>
+    <row r="33" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" s="37"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/TESTCASES/MSD_Project_Notes_Updated.xlsx
+++ b/TESTCASES/MSD_Project_Notes_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSD\PROJECT1\MSD\TESTCASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F735F755-EADC-4E12-AA26-B98BE90E2ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AC14BB-BBBE-4FB6-838B-92DB4E5C5564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FCDD92B1-2F49-4B23-9115-79F9BBEC6A93}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="170">
   <si>
     <t>ROW</t>
   </si>
@@ -549,6 +549,9 @@
   </si>
   <si>
     <t>Scenario30</t>
+  </si>
+  <si>
+    <t>Time out</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -960,12 +963,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -973,12 +987,60 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -986,9 +1048,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -996,28 +1056,13 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1056,9 +1101,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1066,7 +1108,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1077,9 +1119,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1093,15 +1132,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1110,6 +1140,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,8 +1484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA93103-3926-484A-A580-67BFEC347CB4}">
   <dimension ref="B1:R19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,14 +1512,14 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="36"/>
+      <c r="E2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="42"/>
+      <c r="F2" s="38"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1875,52 +1932,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00540E82-C942-4C51-B076-78D9BC70138E}">
-  <dimension ref="B1:AJ33"/>
+  <dimension ref="B1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D17" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:X5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>83</v>
       </c>
@@ -1930,195 +1990,210 @@
       <c r="E2" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="43">
-        <v>1</v>
-      </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="43">
+      <c r="G2" s="54">
+        <v>1</v>
+      </c>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="54">
         <v>2</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="43">
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="54">
         <v>3</v>
       </c>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="46"/>
-      <c r="AG2" s="46"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="46"/>
-    </row>
-    <row r="3" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="55"/>
+      <c r="Y2" s="55"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+    </row>
+    <row r="3" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="34" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="N3" s="34" t="s">
+      <c r="M3" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="O3" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="P3" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="Q3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="R3" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="R3" s="35" t="s">
+      <c r="S3" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="S3" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="T3" s="34" t="s">
+      <c r="T3" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="U3" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="V3" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="U3" s="34" t="s">
+      <c r="W3" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="V3" s="34" t="s">
+      <c r="X3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="W3" s="34" t="s">
+      <c r="Y3" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="X3" s="35" t="s">
+      <c r="Z3" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-    </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AA3" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="33"/>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="33"/>
+    </row>
+    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>84</v>
       </c>
       <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="30">
-        <v>0</v>
-      </c>
-      <c r="H4" s="31">
-        <v>1</v>
-      </c>
-      <c r="I4" s="31">
-        <v>100</v>
-      </c>
-      <c r="J4" s="31">
-        <v>128</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="L4" s="32">
+      <c r="G4" s="27">
+        <v>0</v>
+      </c>
+      <c r="H4" s="28">
+        <v>1</v>
+      </c>
+      <c r="I4" s="28">
+        <v>100</v>
+      </c>
+      <c r="J4" s="28">
+        <v>100</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4" s="52">
         <v>10</v>
       </c>
-      <c r="M4" s="30">
-        <v>0</v>
-      </c>
-      <c r="N4" s="31">
-        <v>1</v>
-      </c>
-      <c r="O4" s="31">
-        <v>100</v>
-      </c>
-      <c r="P4" s="31">
-        <v>128</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="R4" s="32">
+      <c r="M4" s="29"/>
+      <c r="N4" s="27">
+        <v>0</v>
+      </c>
+      <c r="O4" s="28">
+        <v>1</v>
+      </c>
+      <c r="P4" s="28">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>128</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="S4" s="52">
         <v>11</v>
       </c>
-      <c r="S4" s="30">
-        <v>0</v>
-      </c>
-      <c r="T4" s="31">
-        <v>1</v>
-      </c>
-      <c r="U4" s="31">
-        <v>100</v>
-      </c>
-      <c r="V4" s="31">
+      <c r="T4" s="29"/>
+      <c r="U4" s="27">
+        <v>0</v>
+      </c>
+      <c r="V4" s="28">
+        <v>1</v>
+      </c>
+      <c r="W4" s="28">
+        <v>100</v>
+      </c>
+      <c r="X4" s="28">
         <v>255</v>
       </c>
-      <c r="W4" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="X4" s="32">
+      <c r="Y4" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z4" s="52">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AA4" s="29"/>
+    </row>
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="48" t="s">
         <v>104</v>
       </c>
       <c r="F5" s="24" t="s">
@@ -2134,59 +2209,62 @@
         <v>100</v>
       </c>
       <c r="J5" s="19">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="20">
         <v>10</v>
       </c>
-      <c r="M5" s="23">
-        <v>0</v>
-      </c>
-      <c r="N5" s="19">
-        <v>1</v>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23">
+        <v>0</v>
       </c>
       <c r="O5" s="19">
+        <v>1</v>
+      </c>
+      <c r="P5" s="19">
         <v>102</v>
       </c>
-      <c r="P5" s="19">
-        <v>128</v>
-      </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="19">
+        <v>128</v>
+      </c>
+      <c r="R5" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="R5" s="22">
+      <c r="S5" s="20">
         <v>11</v>
       </c>
-      <c r="S5" s="21">
-        <v>0</v>
-      </c>
-      <c r="T5" s="19">
-        <v>1</v>
-      </c>
-      <c r="U5" s="19">
-        <v>100</v>
+      <c r="T5" s="22"/>
+      <c r="U5" s="21">
+        <v>0</v>
       </c>
       <c r="V5" s="19">
+        <v>1</v>
+      </c>
+      <c r="W5" s="19">
+        <v>100</v>
+      </c>
+      <c r="X5" s="19">
         <v>255</v>
       </c>
-      <c r="W5" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="X5" s="22">
+      <c r="Y5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z5" s="20">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="2:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="AA5" s="22"/>
+    </row>
+    <row r="6" spans="2:39" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="48" t="s">
         <v>105</v>
       </c>
       <c r="F6" s="25" t="s">
@@ -2207,54 +2285,57 @@
       <c r="K6" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="20">
         <v>10</v>
       </c>
-      <c r="M6" s="21">
-        <v>0</v>
-      </c>
-      <c r="N6" s="19">
-        <v>1</v>
+      <c r="M6" s="22"/>
+      <c r="N6" s="21">
+        <v>0</v>
       </c>
       <c r="O6" s="19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P6" s="19">
-        <v>128</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="R6" s="22">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>128</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S6" s="20">
         <v>10</v>
       </c>
-      <c r="S6" s="21">
-        <v>0</v>
-      </c>
-      <c r="T6" s="19">
-        <v>1</v>
-      </c>
-      <c r="U6" s="19">
-        <v>100</v>
+      <c r="T6" s="22"/>
+      <c r="U6" s="21">
+        <v>0</v>
       </c>
       <c r="V6" s="19">
+        <v>1</v>
+      </c>
+      <c r="W6" s="19">
+        <v>100</v>
+      </c>
+      <c r="X6" s="19">
         <v>255</v>
       </c>
-      <c r="W6" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="X6" s="22">
+      <c r="Y6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z6" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="AA6" s="22"/>
+    </row>
+    <row r="7" spans="2:39" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="48" t="s">
         <v>106</v>
       </c>
       <c r="F7" s="25" t="s">
@@ -2275,54 +2356,57 @@
       <c r="K7" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="L7" s="22">
+      <c r="L7" s="20">
         <v>10</v>
       </c>
-      <c r="M7" s="23">
-        <v>0</v>
-      </c>
-      <c r="N7" s="19">
-        <v>1</v>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23">
+        <v>0</v>
       </c>
       <c r="O7" s="19">
+        <v>1</v>
+      </c>
+      <c r="P7" s="19">
         <v>102</v>
       </c>
-      <c r="P7" s="19">
-        <v>128</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="R7" s="22">
+      <c r="Q7" s="19">
+        <v>128</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S7" s="20">
         <v>10</v>
       </c>
-      <c r="S7" s="21">
-        <v>0</v>
-      </c>
-      <c r="T7" s="19">
-        <v>1</v>
-      </c>
-      <c r="U7" s="19">
-        <v>100</v>
+      <c r="T7" s="22"/>
+      <c r="U7" s="21">
+        <v>0</v>
       </c>
       <c r="V7" s="19">
+        <v>1</v>
+      </c>
+      <c r="W7" s="19">
+        <v>100</v>
+      </c>
+      <c r="X7" s="19">
         <v>255</v>
       </c>
-      <c r="W7" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="X7" s="22">
+      <c r="Y7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z7" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AA7" s="22"/>
+    </row>
+    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="48" t="s">
         <v>107</v>
       </c>
       <c r="F8" s="24" t="s">
@@ -2343,54 +2427,57 @@
       <c r="K8" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="20">
         <v>10</v>
       </c>
-      <c r="M8" s="23">
-        <v>0</v>
-      </c>
-      <c r="N8" s="19">
+      <c r="M8" s="22"/>
+      <c r="N8" s="23">
+        <v>0</v>
+      </c>
+      <c r="O8" s="19">
         <v>2</v>
       </c>
-      <c r="O8" s="19">
-        <v>100</v>
-      </c>
       <c r="P8" s="19">
-        <v>128</v>
-      </c>
-      <c r="Q8" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>128</v>
+      </c>
+      <c r="R8" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="R8" s="22">
+      <c r="S8" s="20">
         <v>11</v>
       </c>
-      <c r="S8" s="21">
-        <v>0</v>
-      </c>
-      <c r="T8" s="19">
+      <c r="T8" s="22"/>
+      <c r="U8" s="21">
+        <v>0</v>
+      </c>
+      <c r="V8" s="19">
         <v>3</v>
       </c>
-      <c r="U8" s="19">
-        <v>100</v>
-      </c>
-      <c r="V8" s="19">
+      <c r="W8" s="19">
+        <v>100</v>
+      </c>
+      <c r="X8" s="19">
         <v>255</v>
       </c>
-      <c r="W8" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="X8" s="22">
+      <c r="Y8" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z8" s="20">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AA8" s="22"/>
+    </row>
+    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="48" t="s">
         <v>108</v>
       </c>
       <c r="F9" s="24" t="s">
@@ -2411,54 +2498,57 @@
       <c r="K9" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="L9" s="22">
+      <c r="L9" s="20">
         <v>10</v>
       </c>
-      <c r="M9" s="21">
-        <v>1</v>
-      </c>
-      <c r="N9" s="19">
+      <c r="M9" s="22"/>
+      <c r="N9" s="21">
         <v>1</v>
       </c>
       <c r="O9" s="19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P9" s="19">
-        <v>128</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="R9" s="22">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>128</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S9" s="20">
         <v>11</v>
       </c>
-      <c r="S9" s="21">
+      <c r="T9" s="22"/>
+      <c r="U9" s="21">
         <v>2</v>
       </c>
-      <c r="T9" s="19">
-        <v>1</v>
-      </c>
-      <c r="U9" s="19">
-        <v>100</v>
-      </c>
       <c r="V9" s="19">
+        <v>1</v>
+      </c>
+      <c r="W9" s="19">
+        <v>100</v>
+      </c>
+      <c r="X9" s="19">
         <v>255</v>
       </c>
-      <c r="W9" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="X9" s="22">
+      <c r="Y9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z9" s="20">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="2:36" ht="30" x14ac:dyDescent="0.25">
+      <c r="AA9" s="22"/>
+    </row>
+    <row r="10" spans="2:39" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>90</v>
       </c>
       <c r="C10" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="48" t="s">
         <v>109</v>
       </c>
       <c r="F10" s="25" t="s">
@@ -2479,54 +2569,57 @@
       <c r="K10" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="20">
         <v>10</v>
       </c>
-      <c r="M10" s="23">
-        <v>0</v>
-      </c>
-      <c r="N10" s="19">
+      <c r="M10" s="22"/>
+      <c r="N10" s="23">
+        <v>0</v>
+      </c>
+      <c r="O10" s="19">
         <v>2</v>
       </c>
-      <c r="O10" s="19">
-        <v>100</v>
-      </c>
       <c r="P10" s="19">
-        <v>128</v>
-      </c>
-      <c r="Q10" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>128</v>
+      </c>
+      <c r="R10" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="R10" s="22">
+      <c r="S10" s="20">
         <v>10</v>
       </c>
-      <c r="S10" s="21">
-        <v>0</v>
-      </c>
-      <c r="T10" s="19">
+      <c r="T10" s="22"/>
+      <c r="U10" s="21">
+        <v>0</v>
+      </c>
+      <c r="V10" s="19">
         <v>3</v>
       </c>
-      <c r="U10" s="19">
-        <v>100</v>
-      </c>
-      <c r="V10" s="19">
+      <c r="W10" s="19">
+        <v>100</v>
+      </c>
+      <c r="X10" s="19">
         <v>255</v>
       </c>
-      <c r="W10" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="X10" s="22">
+      <c r="Y10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z10" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AA10" s="22"/>
+    </row>
+    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="48" t="s">
         <v>110</v>
       </c>
       <c r="F11" s="24" t="s">
@@ -2547,51 +2640,54 @@
       <c r="K11" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="20">
         <v>10</v>
       </c>
-      <c r="M11" s="21">
-        <v>1</v>
-      </c>
-      <c r="N11" s="19">
+      <c r="M11" s="22"/>
+      <c r="N11" s="21">
         <v>1</v>
       </c>
       <c r="O11" s="19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P11" s="19">
-        <v>128</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="R11" s="22">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>128</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S11" s="20">
         <v>10</v>
       </c>
-      <c r="S11" s="21">
+      <c r="T11" s="22"/>
+      <c r="U11" s="21">
         <v>2</v>
       </c>
-      <c r="T11" s="19">
-        <v>1</v>
-      </c>
-      <c r="U11" s="19">
-        <v>100</v>
-      </c>
       <c r="V11" s="19">
+        <v>1</v>
+      </c>
+      <c r="W11" s="19">
+        <v>100</v>
+      </c>
+      <c r="X11" s="19">
         <v>255</v>
       </c>
-      <c r="W11" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="X11" s="22">
+      <c r="Y11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z11" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AA11" s="22"/>
+    </row>
+    <row r="12" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="48" t="s">
         <v>111</v>
       </c>
       <c r="F12" s="24" t="s">
@@ -2612,48 +2708,51 @@
       <c r="K12" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="20">
         <v>10</v>
       </c>
-      <c r="M12" s="23">
-        <v>0</v>
-      </c>
-      <c r="N12" s="20">
-        <v>1</v>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23">
+        <v>0</v>
       </c>
       <c r="O12" s="20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P12" s="20">
         <v>100</v>
       </c>
-      <c r="Q12" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="R12" s="22">
+      <c r="Q12" s="20">
+        <v>100</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="S12" s="20">
         <v>11</v>
       </c>
-      <c r="S12" s="23">
-        <v>0</v>
-      </c>
-      <c r="T12" s="20">
-        <v>1</v>
-      </c>
-      <c r="U12" s="20">
-        <v>100</v>
+      <c r="T12" s="22"/>
+      <c r="U12" s="23">
+        <v>0</v>
       </c>
       <c r="V12" s="20">
-        <v>100</v>
-      </c>
-      <c r="W12" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="X12" s="22">
+        <v>1</v>
+      </c>
+      <c r="W12" s="20">
+        <v>100</v>
+      </c>
+      <c r="X12" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z12" s="20">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="2:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="E13" s="26" t="s">
+      <c r="AA12" s="22"/>
+    </row>
+    <row r="13" spans="2:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="E13" s="48" t="s">
         <v>112</v>
       </c>
       <c r="F13" s="25" t="s">
@@ -2674,48 +2773,51 @@
       <c r="K13" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="20">
         <v>10</v>
       </c>
-      <c r="M13" s="23">
-        <v>0</v>
-      </c>
-      <c r="N13" s="20">
-        <v>1</v>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23">
+        <v>0</v>
       </c>
       <c r="O13" s="20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P13" s="20">
         <v>100</v>
       </c>
-      <c r="Q13" s="20" t="s">
+      <c r="Q13" s="20">
+        <v>100</v>
+      </c>
+      <c r="R13" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="R13" s="22">
+      <c r="S13" s="20">
         <v>11</v>
       </c>
-      <c r="S13" s="23">
-        <v>0</v>
-      </c>
-      <c r="T13" s="20">
-        <v>1</v>
-      </c>
-      <c r="U13" s="20">
-        <v>100</v>
+      <c r="T13" s="22"/>
+      <c r="U13" s="23">
+        <v>0</v>
       </c>
       <c r="V13" s="20">
-        <v>100</v>
-      </c>
-      <c r="W13" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="X13" s="22">
+        <v>1</v>
+      </c>
+      <c r="W13" s="20">
+        <v>100</v>
+      </c>
+      <c r="X13" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y13" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z13" s="20">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="E14" s="26" t="s">
+      <c r="AA13" s="22"/>
+    </row>
+    <row r="14" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="E14" s="48" t="s">
         <v>113</v>
       </c>
       <c r="F14" s="24" t="s">
@@ -2736,48 +2838,51 @@
       <c r="K14" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="20">
         <v>10</v>
       </c>
-      <c r="M14" s="23">
-        <v>0</v>
-      </c>
-      <c r="N14" s="20">
-        <v>1</v>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23">
+        <v>0</v>
       </c>
       <c r="O14" s="20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P14" s="20">
         <v>100</v>
       </c>
-      <c r="Q14" s="20" t="s">
+      <c r="Q14" s="20">
+        <v>100</v>
+      </c>
+      <c r="R14" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="R14" s="22">
+      <c r="S14" s="20">
         <v>11</v>
       </c>
-      <c r="S14" s="23">
-        <v>0</v>
-      </c>
-      <c r="T14" s="20">
-        <v>1</v>
-      </c>
-      <c r="U14" s="20">
-        <v>100</v>
+      <c r="T14" s="22"/>
+      <c r="U14" s="23">
+        <v>0</v>
       </c>
       <c r="V14" s="20">
-        <v>100</v>
-      </c>
-      <c r="W14" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="X14" s="22">
+        <v>1</v>
+      </c>
+      <c r="W14" s="20">
+        <v>100</v>
+      </c>
+      <c r="X14" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z14" s="20">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="2:36" ht="30" x14ac:dyDescent="0.25">
-      <c r="E15" s="26" t="s">
+      <c r="AA14" s="22"/>
+    </row>
+    <row r="15" spans="2:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="E15" s="48" t="s">
         <v>114</v>
       </c>
       <c r="F15" s="25" t="s">
@@ -2798,48 +2903,51 @@
       <c r="K15" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="20">
         <v>10</v>
       </c>
-      <c r="M15" s="23">
-        <v>0</v>
-      </c>
-      <c r="N15" s="20">
-        <v>1</v>
+      <c r="M15" s="22"/>
+      <c r="N15" s="23">
+        <v>0</v>
       </c>
       <c r="O15" s="20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P15" s="20">
         <v>100</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="Q15" s="20">
+        <v>100</v>
+      </c>
+      <c r="R15" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="R15" s="22">
+      <c r="S15" s="20">
         <v>10</v>
       </c>
-      <c r="S15" s="23">
-        <v>0</v>
-      </c>
-      <c r="T15" s="20">
-        <v>1</v>
-      </c>
-      <c r="U15" s="20">
-        <v>100</v>
+      <c r="T15" s="22"/>
+      <c r="U15" s="23">
+        <v>0</v>
       </c>
       <c r="V15" s="20">
-        <v>100</v>
-      </c>
-      <c r="W15" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="X15" s="22">
+        <v>1</v>
+      </c>
+      <c r="W15" s="20">
+        <v>100</v>
+      </c>
+      <c r="X15" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y15" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z15" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="E16" s="26" t="s">
+      <c r="AA15" s="22"/>
+    </row>
+    <row r="16" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="E16" s="48" t="s">
         <v>115</v>
       </c>
       <c r="F16" s="24" t="s">
@@ -2860,48 +2968,51 @@
       <c r="K16" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="20">
         <v>10</v>
       </c>
-      <c r="M16" s="23">
-        <v>0</v>
-      </c>
-      <c r="N16" s="20">
-        <v>1</v>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23">
+        <v>0</v>
       </c>
       <c r="O16" s="20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P16" s="20">
         <v>100</v>
       </c>
-      <c r="Q16" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="R16" s="22">
+      <c r="Q16" s="20">
+        <v>100</v>
+      </c>
+      <c r="R16" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="S16" s="20">
         <v>10</v>
       </c>
-      <c r="S16" s="23">
-        <v>0</v>
-      </c>
-      <c r="T16" s="20">
-        <v>1</v>
-      </c>
-      <c r="U16" s="20">
-        <v>100</v>
+      <c r="T16" s="22"/>
+      <c r="U16" s="23">
+        <v>0</v>
       </c>
       <c r="V16" s="20">
-        <v>100</v>
-      </c>
-      <c r="W16" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="X16" s="22">
+        <v>1</v>
+      </c>
+      <c r="W16" s="20">
+        <v>100</v>
+      </c>
+      <c r="X16" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y16" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z16" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E17" s="26" t="s">
+      <c r="AA16" s="22"/>
+    </row>
+    <row r="17" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E17" s="48" t="s">
         <v>116</v>
       </c>
       <c r="F17" s="24" t="s">
@@ -2922,48 +3033,51 @@
       <c r="K17" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="20">
         <v>10</v>
       </c>
-      <c r="M17" s="23">
-        <v>0</v>
-      </c>
-      <c r="N17" s="20">
-        <v>1</v>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23">
+        <v>0</v>
       </c>
       <c r="O17" s="20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P17" s="20">
         <v>100</v>
       </c>
-      <c r="Q17" s="20" t="s">
+      <c r="Q17" s="20">
+        <v>100</v>
+      </c>
+      <c r="R17" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="R17" s="22">
+      <c r="S17" s="20">
         <v>10</v>
       </c>
-      <c r="S17" s="23">
-        <v>0</v>
-      </c>
-      <c r="T17" s="20">
-        <v>1</v>
-      </c>
-      <c r="U17" s="20">
-        <v>100</v>
+      <c r="T17" s="22"/>
+      <c r="U17" s="23">
+        <v>0</v>
       </c>
       <c r="V17" s="20">
-        <v>100</v>
-      </c>
-      <c r="W17" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="W17" s="20">
+        <v>100</v>
+      </c>
+      <c r="X17" s="20">
+        <v>100</v>
+      </c>
+      <c r="Y17" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="X17" s="22">
+      <c r="Z17" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E18" s="26" t="s">
+      <c r="AA17" s="22"/>
+    </row>
+    <row r="18" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E18" s="48" t="s">
         <v>117</v>
       </c>
       <c r="F18" s="24" t="s">
@@ -2984,48 +3098,51 @@
       <c r="K18" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="20">
         <v>10</v>
       </c>
-      <c r="M18" s="23">
-        <v>0</v>
-      </c>
-      <c r="N18" s="20">
-        <v>1</v>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23">
+        <v>0</v>
       </c>
       <c r="O18" s="20">
+        <v>1</v>
+      </c>
+      <c r="P18" s="20">
         <v>105</v>
       </c>
-      <c r="P18" s="20">
-        <v>128</v>
-      </c>
-      <c r="Q18" s="20" t="s">
+      <c r="Q18" s="20">
+        <v>128</v>
+      </c>
+      <c r="R18" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="R18" s="22">
+      <c r="S18" s="20">
         <v>11</v>
       </c>
-      <c r="S18" s="23">
-        <v>0</v>
-      </c>
-      <c r="T18" s="20">
-        <v>1</v>
-      </c>
-      <c r="U18" s="20">
+      <c r="T18" s="22"/>
+      <c r="U18" s="23">
+        <v>0</v>
+      </c>
+      <c r="V18" s="20">
+        <v>1</v>
+      </c>
+      <c r="W18" s="20">
         <v>110</v>
       </c>
-      <c r="V18" s="20">
+      <c r="X18" s="20">
         <v>156</v>
       </c>
-      <c r="W18" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="X18" s="22">
+      <c r="Y18" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z18" s="20">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="5:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="E19" s="26" t="s">
+      <c r="AA18" s="22"/>
+    </row>
+    <row r="19" spans="5:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="E19" s="48" t="s">
         <v>118</v>
       </c>
       <c r="F19" s="25" t="s">
@@ -3046,48 +3163,51 @@
       <c r="K19" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="20">
         <v>10</v>
       </c>
-      <c r="M19" s="23">
-        <v>0</v>
-      </c>
-      <c r="N19" s="20">
-        <v>1</v>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23">
+        <v>0</v>
       </c>
       <c r="O19" s="20">
+        <v>1</v>
+      </c>
+      <c r="P19" s="20">
         <v>105</v>
       </c>
-      <c r="P19" s="20">
-        <v>128</v>
-      </c>
-      <c r="Q19" s="20" t="s">
+      <c r="Q19" s="20">
+        <v>128</v>
+      </c>
+      <c r="R19" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="R19" s="22">
+      <c r="S19" s="20">
         <v>10</v>
       </c>
-      <c r="S19" s="23">
-        <v>0</v>
-      </c>
-      <c r="T19" s="20">
-        <v>1</v>
-      </c>
-      <c r="U19" s="20">
+      <c r="T19" s="22"/>
+      <c r="U19" s="23">
+        <v>0</v>
+      </c>
+      <c r="V19" s="20">
+        <v>1</v>
+      </c>
+      <c r="W19" s="20">
         <v>110</v>
       </c>
-      <c r="V19" s="20">
+      <c r="X19" s="20">
         <v>156</v>
       </c>
-      <c r="W19" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="X19" s="22">
+      <c r="Y19" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z19" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="5:24" x14ac:dyDescent="0.25">
-      <c r="E20" s="26" t="s">
+      <c r="AA19" s="22"/>
+    </row>
+    <row r="20" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E20" s="48" t="s">
         <v>119</v>
       </c>
       <c r="F20" s="25" t="s">
@@ -3108,51 +3228,54 @@
       <c r="K20" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="20">
         <v>20</v>
       </c>
-      <c r="M20" s="23">
-        <v>0</v>
-      </c>
-      <c r="N20" s="19">
-        <v>1</v>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23">
+        <v>0</v>
       </c>
       <c r="O20" s="19">
+        <v>1</v>
+      </c>
+      <c r="P20" s="19">
         <v>102</v>
       </c>
-      <c r="P20" s="19">
-        <v>128</v>
-      </c>
-      <c r="Q20" s="19" t="s">
+      <c r="Q20" s="19">
+        <v>128</v>
+      </c>
+      <c r="R20" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="R20" s="22">
+      <c r="S20" s="20">
         <v>21</v>
       </c>
-      <c r="S20" s="21">
-        <v>0</v>
-      </c>
-      <c r="T20" s="19">
-        <v>1</v>
-      </c>
-      <c r="U20" s="19">
-        <v>100</v>
+      <c r="T20" s="22"/>
+      <c r="U20" s="21">
+        <v>0</v>
       </c>
       <c r="V20" s="19">
+        <v>1</v>
+      </c>
+      <c r="W20" s="19">
+        <v>100</v>
+      </c>
+      <c r="X20" s="19">
         <v>255</v>
       </c>
-      <c r="W20" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="X20" s="22">
+      <c r="Y20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z20" s="20">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="5:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="E21" s="26" t="s">
+      <c r="AA20" s="22"/>
+    </row>
+    <row r="21" spans="5:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="E21" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="34" t="s">
         <v>152</v>
       </c>
       <c r="G21" s="21">
@@ -3170,48 +3293,51 @@
       <c r="K21" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="20">
         <v>20</v>
       </c>
-      <c r="M21" s="23">
-        <v>0</v>
-      </c>
-      <c r="N21" s="19">
-        <v>1</v>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23">
+        <v>0</v>
       </c>
       <c r="O21" s="19">
+        <v>1</v>
+      </c>
+      <c r="P21" s="19">
         <v>102</v>
       </c>
-      <c r="P21" s="19">
-        <v>128</v>
-      </c>
-      <c r="Q21" s="19" t="s">
+      <c r="Q21" s="19">
+        <v>128</v>
+      </c>
+      <c r="R21" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="R21" s="22">
+      <c r="S21" s="20">
         <v>21</v>
       </c>
-      <c r="S21" s="21">
-        <v>0</v>
-      </c>
-      <c r="T21" s="19">
-        <v>1</v>
-      </c>
-      <c r="U21" s="19">
-        <v>100</v>
+      <c r="T21" s="22"/>
+      <c r="U21" s="21">
+        <v>0</v>
       </c>
       <c r="V21" s="19">
+        <v>1</v>
+      </c>
+      <c r="W21" s="19">
+        <v>100</v>
+      </c>
+      <c r="X21" s="19">
         <v>255</v>
       </c>
-      <c r="W21" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="X21" s="22">
+      <c r="Y21" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z21" s="20">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="5:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="27" t="s">
+      <c r="AA21" s="22"/>
+    </row>
+    <row r="22" spans="5:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="E22" s="48" t="s">
         <v>121</v>
       </c>
       <c r="F22" s="25" t="s">
@@ -3232,237 +3358,249 @@
       <c r="K22" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="20">
         <v>20</v>
       </c>
-      <c r="M22" s="23">
-        <v>0</v>
-      </c>
-      <c r="N22" s="19">
-        <v>1</v>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23">
+        <v>0</v>
       </c>
       <c r="O22" s="19">
+        <v>1</v>
+      </c>
+      <c r="P22" s="19">
         <v>102</v>
       </c>
-      <c r="P22" s="19">
-        <v>128</v>
-      </c>
-      <c r="Q22" s="19" t="s">
+      <c r="Q22" s="19">
+        <v>128</v>
+      </c>
+      <c r="R22" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="R22" s="22">
+      <c r="S22" s="20">
         <v>20</v>
       </c>
-      <c r="S22" s="21">
-        <v>0</v>
-      </c>
-      <c r="T22" s="19">
-        <v>1</v>
-      </c>
-      <c r="U22" s="19">
-        <v>100</v>
+      <c r="T22" s="22"/>
+      <c r="U22" s="21">
+        <v>0</v>
       </c>
       <c r="V22" s="19">
+        <v>1</v>
+      </c>
+      <c r="W22" s="19">
+        <v>100</v>
+      </c>
+      <c r="X22" s="19">
         <v>255</v>
       </c>
-      <c r="W22" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="X22" s="22">
+      <c r="Y22" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z22" s="20">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="5:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="27" t="s">
+      <c r="AA22" s="22"/>
+    </row>
+    <row r="23" spans="5:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="E23" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F23" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="G23" s="30">
-        <v>0</v>
-      </c>
-      <c r="H23" s="31">
-        <v>1</v>
-      </c>
-      <c r="I23" s="31">
-        <v>100</v>
-      </c>
-      <c r="J23" s="31">
-        <v>128</v>
-      </c>
-      <c r="K23" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="L23" s="32">
+      <c r="G23" s="21">
+        <v>0</v>
+      </c>
+      <c r="H23" s="19">
+        <v>1</v>
+      </c>
+      <c r="I23" s="19">
+        <v>100</v>
+      </c>
+      <c r="J23" s="19">
+        <v>128</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" s="20">
         <v>10</v>
       </c>
-      <c r="M23" s="30">
-        <v>0</v>
-      </c>
-      <c r="N23" s="31">
+      <c r="M23" s="22"/>
+      <c r="N23" s="21">
+        <v>0</v>
+      </c>
+      <c r="O23" s="19">
         <v>2</v>
       </c>
-      <c r="O23" s="31">
-        <v>100</v>
-      </c>
-      <c r="P23" s="31">
-        <v>128</v>
-      </c>
-      <c r="Q23" s="31" t="s">
+      <c r="P23" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>128</v>
+      </c>
+      <c r="R23" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="R23" s="32">
+      <c r="S23" s="20">
         <v>11</v>
       </c>
-      <c r="S23" s="30">
-        <v>0</v>
-      </c>
-      <c r="T23" s="31">
-        <v>1</v>
-      </c>
-      <c r="U23" s="31">
-        <v>100</v>
-      </c>
-      <c r="V23" s="31">
-        <v>128</v>
-      </c>
-      <c r="W23" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="X23" s="32">
+      <c r="T23" s="22"/>
+      <c r="U23" s="21">
+        <v>0</v>
+      </c>
+      <c r="V23" s="19">
+        <v>1</v>
+      </c>
+      <c r="W23" s="19">
+        <v>100</v>
+      </c>
+      <c r="X23" s="19">
+        <v>128</v>
+      </c>
+      <c r="Y23" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z23" s="20">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="5:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="27" t="s">
+      <c r="AA23" s="22"/>
+    </row>
+    <row r="24" spans="5:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="E24" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F24" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="G24" s="30">
-        <v>0</v>
-      </c>
-      <c r="H24" s="31">
-        <v>1</v>
-      </c>
-      <c r="I24" s="31">
-        <v>100</v>
-      </c>
-      <c r="J24" s="31">
-        <v>128</v>
-      </c>
-      <c r="K24" s="31" t="s">
+      <c r="G24" s="21">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19">
+        <v>1</v>
+      </c>
+      <c r="I24" s="19">
+        <v>100</v>
+      </c>
+      <c r="J24" s="19">
+        <v>128</v>
+      </c>
+      <c r="K24" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="20">
         <v>10</v>
       </c>
-      <c r="M24" s="30">
-        <v>0</v>
-      </c>
-      <c r="N24" s="31">
+      <c r="M24" s="22"/>
+      <c r="N24" s="21">
+        <v>0</v>
+      </c>
+      <c r="O24" s="19">
         <v>2</v>
       </c>
-      <c r="O24" s="31">
-        <v>100</v>
-      </c>
-      <c r="P24" s="31">
-        <v>128</v>
-      </c>
-      <c r="Q24" s="31" t="s">
+      <c r="P24" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>128</v>
+      </c>
+      <c r="R24" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="R24" s="32">
+      <c r="S24" s="20">
         <v>11</v>
       </c>
-      <c r="S24" s="30">
-        <v>0</v>
-      </c>
-      <c r="T24" s="31">
-        <v>1</v>
-      </c>
-      <c r="U24" s="31">
-        <v>100</v>
-      </c>
-      <c r="V24" s="31">
-        <v>128</v>
-      </c>
-      <c r="W24" s="31" t="s">
+      <c r="T24" s="22"/>
+      <c r="U24" s="21">
+        <v>0</v>
+      </c>
+      <c r="V24" s="19">
+        <v>1</v>
+      </c>
+      <c r="W24" s="19">
+        <v>100</v>
+      </c>
+      <c r="X24" s="19">
+        <v>128</v>
+      </c>
+      <c r="Y24" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="X24" s="32">
+      <c r="Z24" s="20">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="5:24" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="27" t="s">
+      <c r="AA24" s="22"/>
+    </row>
+    <row r="25" spans="5:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="E25" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="G25" s="30">
-        <v>0</v>
-      </c>
-      <c r="H25" s="31">
-        <v>1</v>
-      </c>
-      <c r="I25" s="31">
-        <v>100</v>
-      </c>
-      <c r="J25" s="31">
-        <v>128</v>
-      </c>
-      <c r="K25" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="L25" s="32">
+      <c r="G25" s="21">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19">
+        <v>1</v>
+      </c>
+      <c r="I25" s="19">
+        <v>100</v>
+      </c>
+      <c r="J25" s="19">
+        <v>128</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="20">
         <v>50</v>
       </c>
-      <c r="M25" s="30">
-        <v>0</v>
-      </c>
-      <c r="N25" s="31">
+      <c r="M25" s="22"/>
+      <c r="N25" s="21">
+        <v>0</v>
+      </c>
+      <c r="O25" s="19">
         <v>2</v>
       </c>
-      <c r="O25" s="31">
-        <v>100</v>
-      </c>
-      <c r="P25" s="31">
-        <v>128</v>
-      </c>
-      <c r="Q25" s="31" t="s">
+      <c r="P25" s="19">
+        <v>100</v>
+      </c>
+      <c r="Q25" s="19">
+        <v>128</v>
+      </c>
+      <c r="R25" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="R25" s="32">
+      <c r="S25" s="20">
         <v>1000</v>
       </c>
-      <c r="S25" s="30">
-        <v>0</v>
-      </c>
-      <c r="T25" s="31">
-        <v>1</v>
-      </c>
-      <c r="U25" s="31">
-        <v>100</v>
-      </c>
-      <c r="V25" s="31">
-        <v>128</v>
-      </c>
-      <c r="W25" s="31" t="s">
+      <c r="T25" s="22"/>
+      <c r="U25" s="21">
+        <v>0</v>
+      </c>
+      <c r="V25" s="19">
+        <v>1</v>
+      </c>
+      <c r="W25" s="19">
+        <v>100</v>
+      </c>
+      <c r="X25" s="19">
+        <v>128</v>
+      </c>
+      <c r="Y25" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="X25" s="32">
+      <c r="Z25" s="20">
         <v>1002</v>
       </c>
-    </row>
-    <row r="26" spans="5:24" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="27" t="s">
+      <c r="AA25" s="22"/>
+    </row>
+    <row r="26" spans="5:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="E26" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="34" t="s">
         <v>160</v>
       </c>
       <c r="G26" s="21">
@@ -3480,51 +3618,54 @@
       <c r="K26" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="20">
         <v>20</v>
       </c>
-      <c r="M26" s="23">
-        <v>0</v>
-      </c>
-      <c r="N26" s="19">
-        <v>1</v>
+      <c r="M26" s="22"/>
+      <c r="N26" s="23">
+        <v>0</v>
       </c>
       <c r="O26" s="19">
+        <v>1</v>
+      </c>
+      <c r="P26" s="19">
         <v>102</v>
       </c>
-      <c r="P26" s="19">
-        <v>128</v>
-      </c>
-      <c r="Q26" s="19" t="s">
+      <c r="Q26" s="19">
+        <v>128</v>
+      </c>
+      <c r="R26" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="R26" s="22">
+      <c r="S26" s="20">
         <v>21</v>
       </c>
-      <c r="S26" s="21">
-        <v>0</v>
-      </c>
-      <c r="T26" s="19">
+      <c r="T26" s="22"/>
+      <c r="U26" s="21">
+        <v>0</v>
+      </c>
+      <c r="V26" s="19">
         <v>2</v>
       </c>
-      <c r="U26" s="19">
-        <v>100</v>
-      </c>
-      <c r="V26" s="19">
+      <c r="W26" s="19">
+        <v>100</v>
+      </c>
+      <c r="X26" s="19">
         <v>255</v>
       </c>
-      <c r="W26" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="X26" s="22">
+      <c r="Y26" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z26" s="20">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E27" s="27" t="s">
+      <c r="AA26" s="22"/>
+    </row>
+    <row r="27" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E27" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="F27" s="37" t="s">
+      <c r="F27" s="34" t="s">
         <v>162</v>
       </c>
       <c r="G27" s="21">
@@ -3542,51 +3683,54 @@
       <c r="K27" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="20">
         <v>10</v>
       </c>
-      <c r="M27" s="23">
-        <v>0</v>
-      </c>
-      <c r="N27" s="19">
-        <v>1</v>
+      <c r="M27" s="22"/>
+      <c r="N27" s="23">
+        <v>0</v>
       </c>
       <c r="O27" s="19">
+        <v>1</v>
+      </c>
+      <c r="P27" s="19">
         <v>102</v>
       </c>
-      <c r="P27" s="19">
-        <v>128</v>
-      </c>
-      <c r="Q27" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="R27" s="22">
+      <c r="Q27" s="19">
+        <v>128</v>
+      </c>
+      <c r="R27" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S27" s="20">
         <v>21</v>
       </c>
-      <c r="S27" s="21">
-        <v>0</v>
-      </c>
-      <c r="T27" s="19">
-        <v>1</v>
-      </c>
-      <c r="U27" s="19">
+      <c r="T27" s="22"/>
+      <c r="U27" s="21">
+        <v>0</v>
+      </c>
+      <c r="V27" s="19">
+        <v>1</v>
+      </c>
+      <c r="W27" s="19">
         <v>104</v>
       </c>
-      <c r="V27" s="19">
-        <v>128</v>
-      </c>
-      <c r="W27" s="19" t="s">
+      <c r="X27" s="19">
+        <v>128</v>
+      </c>
+      <c r="Y27" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="X27" s="22">
+      <c r="Z27" s="20">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="27" t="s">
+      <c r="AA27" s="22"/>
+    </row>
+    <row r="28" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E28" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="37" t="s">
+      <c r="F28" s="34" t="s">
         <v>163</v>
       </c>
       <c r="G28" s="21">
@@ -3604,175 +3748,193 @@
       <c r="K28" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="20">
         <v>10</v>
       </c>
-      <c r="M28" s="23">
-        <v>1</v>
-      </c>
-      <c r="N28" s="19">
+      <c r="M28" s="22"/>
+      <c r="N28" s="23">
         <v>1</v>
       </c>
       <c r="O28" s="19">
+        <v>1</v>
+      </c>
+      <c r="P28" s="19">
         <v>102</v>
       </c>
-      <c r="P28" s="19">
-        <v>128</v>
-      </c>
-      <c r="Q28" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="R28" s="22">
+      <c r="Q28" s="19">
+        <v>128</v>
+      </c>
+      <c r="R28" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="S28" s="20">
         <v>21</v>
       </c>
-      <c r="S28" s="21">
+      <c r="T28" s="22"/>
+      <c r="U28" s="21">
         <v>2</v>
       </c>
-      <c r="T28" s="19">
-        <v>1</v>
-      </c>
-      <c r="U28" s="19">
+      <c r="V28" s="19">
+        <v>1</v>
+      </c>
+      <c r="W28" s="19">
         <v>104</v>
       </c>
-      <c r="V28" s="19">
-        <v>128</v>
-      </c>
-      <c r="W28" s="19" t="s">
+      <c r="X28" s="19">
+        <v>128</v>
+      </c>
+      <c r="Y28" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="X28" s="22">
+      <c r="Z28" s="20">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E29" s="27" t="s">
+      <c r="AA28" s="22"/>
+    </row>
+    <row r="29" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E29" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="37"/>
+      <c r="F29" s="34"/>
       <c r="G29" s="21"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="19"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="23"/>
       <c r="O29" s="19"/>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="21"/>
       <c r="V29" s="19"/>
       <c r="W29" s="19"/>
-      <c r="X29" s="22"/>
-    </row>
-    <row r="30" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E30" s="27" t="s">
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="22"/>
+    </row>
+    <row r="30" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E30" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="37"/>
+      <c r="F30" s="34"/>
       <c r="G30" s="21"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="23"/>
       <c r="O30" s="19"/>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="21"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
-      <c r="X30" s="22"/>
-    </row>
-    <row r="31" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E31" s="27" t="s">
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="22"/>
+    </row>
+    <row r="31" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E31" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="F31" s="37"/>
+      <c r="F31" s="34"/>
       <c r="G31" s="21"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="19"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="23"/>
       <c r="O31" s="19"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="21"/>
       <c r="V31" s="19"/>
       <c r="W31" s="19"/>
-      <c r="X31" s="22"/>
-    </row>
-    <row r="32" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E32" s="27" t="s">
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="22"/>
+    </row>
+    <row r="32" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E32" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="F32" s="37"/>
+      <c r="F32" s="34"/>
       <c r="G32" s="21"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="19"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="23"/>
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="19"/>
-      <c r="U32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="21"/>
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
-      <c r="X32" s="22"/>
-    </row>
-    <row r="33" spans="5:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="27" t="s">
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="22"/>
+    </row>
+    <row r="33" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="22"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="43"/>
+      <c r="AA33" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="Y2:AD2"/>
-    <mergeCell ref="AE2:AJ2"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AH2:AM2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="U2:AA2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TESTCASES/MSD_Project_Notes_Updated.xlsx
+++ b/TESTCASES/MSD_Project_Notes_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSD\PROJECT1\MSD\TESTCASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AC14BB-BBBE-4FB6-838B-92DB4E5C5564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5877174-C129-45E3-A583-73A9C97126E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FCDD92B1-2F49-4B23-9115-79F9BBEC6A93}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="171">
   <si>
     <t>ROW</t>
   </si>
@@ -552,6 +552,9 @@
   </si>
   <si>
     <t>Time out</t>
+  </si>
+  <si>
+    <t>Time in</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -987,6 +990,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1058,11 +1087,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1146,28 +1199,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1484,7 +1543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA93103-3926-484A-A580-67BFEC347CB4}">
   <dimension ref="B1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
@@ -1932,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00540E82-C942-4C51-B076-78D9BC70138E}">
-  <dimension ref="B1:AM33"/>
+  <dimension ref="B1:AP33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,43 +2003,46 @@
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>83</v>
       </c>
@@ -2001,28 +2063,28 @@
       <c r="J2" s="55"/>
       <c r="K2" s="55"/>
       <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="54">
+      <c r="M2" s="55"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="54">
         <v>2</v>
       </c>
-      <c r="O2" s="55"/>
       <c r="P2" s="55"/>
       <c r="Q2" s="55"/>
       <c r="R2" s="55"/>
       <c r="S2" s="55"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="54">
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="54">
         <v>3</v>
       </c>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
       <c r="X2" s="55"/>
       <c r="Y2" s="55"/>
       <c r="Z2" s="55"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
+      <c r="AA2" s="55"/>
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="56"/>
       <c r="AE2" s="39"/>
       <c r="AF2" s="39"/>
       <c r="AG2" s="39"/>
@@ -2032,8 +2094,11 @@
       <c r="AK2" s="39"/>
       <c r="AL2" s="39"/>
       <c r="AM2" s="39"/>
-    </row>
-    <row r="3" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+    </row>
+    <row r="3" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>93</v>
       </c>
@@ -2057,54 +2122,60 @@
       <c r="L3" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="N3" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="O3" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="P3" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="Q3" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="R3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="S3" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="T3" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="T3" s="32" t="s">
+      <c r="U3" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="V3" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="U3" s="30" t="s">
+      <c r="W3" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="V3" s="31" t="s">
+      <c r="X3" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="Y3" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="X3" s="31" t="s">
+      <c r="Z3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="Y3" s="31" t="s">
+      <c r="AA3" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="Z3" s="31" t="s">
+      <c r="AB3" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="AA3" s="32" t="s">
+      <c r="AC3" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD3" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
       <c r="AE3" s="33"/>
       <c r="AF3" s="33"/>
       <c r="AG3" s="33"/>
@@ -2114,8 +2185,11 @@
       <c r="AK3" s="33"/>
       <c r="AL3" s="33"/>
       <c r="AM3" s="33"/>
-    </row>
-    <row r="4" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AN3" s="33"/>
+      <c r="AO3" s="33"/>
+      <c r="AP3" s="33"/>
+    </row>
+    <row r="4" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>84</v>
       </c>
@@ -2146,47 +2220,50 @@
       <c r="L4" s="52">
         <v>10</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="27">
-        <v>0</v>
-      </c>
-      <c r="O4" s="28">
-        <v>1</v>
+      <c r="M4" s="58"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="27">
+        <v>0</v>
       </c>
       <c r="P4" s="28">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="28">
+        <v>100</v>
+      </c>
+      <c r="R4" s="28">
         <v>128</v>
       </c>
-      <c r="R4" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="S4" s="52">
+      <c r="S4" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="T4" s="52">
         <v>11</v>
       </c>
-      <c r="T4" s="29"/>
-      <c r="U4" s="27">
-        <v>0</v>
-      </c>
-      <c r="V4" s="28">
-        <v>1</v>
-      </c>
-      <c r="W4" s="28">
-        <v>100</v>
+      <c r="U4" s="58"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="27">
+        <v>0</v>
       </c>
       <c r="X4" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="28">
+        <v>100</v>
+      </c>
+      <c r="Z4" s="28">
         <v>255</v>
       </c>
-      <c r="Y4" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z4" s="52">
+      <c r="AA4" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB4" s="52">
         <v>12</v>
       </c>
-      <c r="AA4" s="29"/>
-    </row>
-    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="29"/>
+    </row>
+    <row r="5" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>85</v>
       </c>
@@ -2217,47 +2294,50 @@
       <c r="L5" s="20">
         <v>10</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23">
-        <v>0</v>
-      </c>
-      <c r="O5" s="19">
-        <v>1</v>
+      <c r="M5" s="59"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="23">
+        <v>0</v>
       </c>
       <c r="P5" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="19">
         <v>102</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="R5" s="19">
         <v>128</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="S5" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="S5" s="20">
+      <c r="T5" s="20">
         <v>11</v>
       </c>
-      <c r="T5" s="22"/>
-      <c r="U5" s="21">
-        <v>0</v>
-      </c>
-      <c r="V5" s="19">
-        <v>1</v>
-      </c>
-      <c r="W5" s="19">
-        <v>100</v>
+      <c r="U5" s="59"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="21">
+        <v>0</v>
       </c>
       <c r="X5" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z5" s="19">
         <v>255</v>
       </c>
-      <c r="Y5" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z5" s="20">
+      <c r="AA5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB5" s="20">
         <v>12</v>
       </c>
-      <c r="AA5" s="22"/>
-    </row>
-    <row r="6" spans="2:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="22"/>
+    </row>
+    <row r="6" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>86</v>
       </c>
@@ -2288,47 +2368,50 @@
       <c r="L6" s="20">
         <v>10</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="21">
-        <v>0</v>
-      </c>
-      <c r="O6" s="19">
-        <v>1</v>
+      <c r="M6" s="59"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="21">
+        <v>0</v>
       </c>
       <c r="P6" s="19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="19">
+        <v>100</v>
+      </c>
+      <c r="R6" s="19">
         <v>128</v>
       </c>
-      <c r="R6" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="S6" s="20">
+      <c r="S6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T6" s="20">
         <v>10</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="21">
-        <v>0</v>
-      </c>
-      <c r="V6" s="19">
-        <v>1</v>
-      </c>
-      <c r="W6" s="19">
-        <v>100</v>
+      <c r="U6" s="59"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="21">
+        <v>0</v>
       </c>
       <c r="X6" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z6" s="19">
         <v>255</v>
       </c>
-      <c r="Y6" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z6" s="20">
+      <c r="AA6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB6" s="20">
         <v>10</v>
       </c>
-      <c r="AA6" s="22"/>
-    </row>
-    <row r="7" spans="2:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="22"/>
+    </row>
+    <row r="7" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>87</v>
       </c>
@@ -2359,47 +2442,50 @@
       <c r="L7" s="20">
         <v>10</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23">
-        <v>0</v>
-      </c>
-      <c r="O7" s="19">
-        <v>1</v>
+      <c r="M7" s="59"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="23">
+        <v>0</v>
       </c>
       <c r="P7" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="19">
         <v>102</v>
       </c>
-      <c r="Q7" s="19">
+      <c r="R7" s="19">
         <v>128</v>
       </c>
-      <c r="R7" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="S7" s="20">
+      <c r="S7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T7" s="20">
         <v>10</v>
       </c>
-      <c r="T7" s="22"/>
-      <c r="U7" s="21">
-        <v>0</v>
-      </c>
-      <c r="V7" s="19">
-        <v>1</v>
-      </c>
-      <c r="W7" s="19">
-        <v>100</v>
+      <c r="U7" s="59"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="21">
+        <v>0</v>
       </c>
       <c r="X7" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z7" s="19">
         <v>255</v>
       </c>
-      <c r="Y7" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z7" s="20">
+      <c r="AA7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB7" s="20">
         <v>10</v>
       </c>
-      <c r="AA7" s="22"/>
-    </row>
-    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="22"/>
+    </row>
+    <row r="8" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>88</v>
       </c>
@@ -2430,47 +2516,50 @@
       <c r="L8" s="20">
         <v>10</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="23">
-        <v>0</v>
-      </c>
-      <c r="O8" s="19">
+      <c r="M8" s="59"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="23">
+        <v>0</v>
+      </c>
+      <c r="P8" s="19">
         <v>2</v>
       </c>
-      <c r="P8" s="19">
-        <v>100</v>
-      </c>
       <c r="Q8" s="19">
+        <v>100</v>
+      </c>
+      <c r="R8" s="19">
         <v>128</v>
       </c>
-      <c r="R8" s="19" t="s">
+      <c r="S8" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="S8" s="20">
+      <c r="T8" s="20">
         <v>11</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="21">
-        <v>0</v>
-      </c>
-      <c r="V8" s="19">
+      <c r="U8" s="59"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="21">
+        <v>0</v>
+      </c>
+      <c r="X8" s="19">
         <v>3</v>
       </c>
-      <c r="W8" s="19">
-        <v>100</v>
-      </c>
-      <c r="X8" s="19">
+      <c r="Y8" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="19">
         <v>255</v>
       </c>
-      <c r="Y8" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z8" s="20">
+      <c r="AA8" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB8" s="20">
         <v>12</v>
       </c>
-      <c r="AA8" s="22"/>
-    </row>
-    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="22"/>
+    </row>
+    <row r="9" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>89</v>
       </c>
@@ -2501,47 +2590,50 @@
       <c r="L9" s="20">
         <v>10</v>
       </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="21">
-        <v>1</v>
-      </c>
-      <c r="O9" s="19">
+      <c r="M9" s="59"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="21">
         <v>1</v>
       </c>
       <c r="P9" s="19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="19">
+        <v>100</v>
+      </c>
+      <c r="R9" s="19">
         <v>128</v>
       </c>
-      <c r="R9" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="S9" s="20">
+      <c r="S9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T9" s="20">
         <v>11</v>
       </c>
-      <c r="T9" s="22"/>
-      <c r="U9" s="21">
+      <c r="U9" s="59"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="21">
         <v>2</v>
       </c>
-      <c r="V9" s="19">
-        <v>1</v>
-      </c>
-      <c r="W9" s="19">
-        <v>100</v>
-      </c>
       <c r="X9" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="19">
         <v>255</v>
       </c>
-      <c r="Y9" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z9" s="20">
+      <c r="AA9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB9" s="20">
         <v>12</v>
       </c>
-      <c r="AA9" s="22"/>
-    </row>
-    <row r="10" spans="2:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="22"/>
+    </row>
+    <row r="10" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>90</v>
       </c>
@@ -2572,47 +2664,50 @@
       <c r="L10" s="20">
         <v>10</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="23">
-        <v>0</v>
-      </c>
-      <c r="O10" s="19">
+      <c r="M10" s="59"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="23">
+        <v>0</v>
+      </c>
+      <c r="P10" s="19">
         <v>2</v>
       </c>
-      <c r="P10" s="19">
-        <v>100</v>
-      </c>
       <c r="Q10" s="19">
+        <v>100</v>
+      </c>
+      <c r="R10" s="19">
         <v>128</v>
       </c>
-      <c r="R10" s="19" t="s">
+      <c r="S10" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="S10" s="20">
+      <c r="T10" s="20">
         <v>10</v>
       </c>
-      <c r="T10" s="22"/>
-      <c r="U10" s="21">
-        <v>0</v>
-      </c>
-      <c r="V10" s="19">
+      <c r="U10" s="59"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="21">
+        <v>0</v>
+      </c>
+      <c r="X10" s="19">
         <v>3</v>
       </c>
-      <c r="W10" s="19">
-        <v>100</v>
-      </c>
-      <c r="X10" s="19">
+      <c r="Y10" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="19">
         <v>255</v>
       </c>
-      <c r="Y10" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z10" s="20">
+      <c r="AA10" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB10" s="20">
         <v>10</v>
       </c>
-      <c r="AA10" s="22"/>
-    </row>
-    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="22"/>
+    </row>
+    <row r="11" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -2643,47 +2738,50 @@
       <c r="L11" s="20">
         <v>10</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="21">
-        <v>1</v>
-      </c>
-      <c r="O11" s="19">
+      <c r="M11" s="59"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="21">
         <v>1</v>
       </c>
       <c r="P11" s="19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="19">
+        <v>100</v>
+      </c>
+      <c r="R11" s="19">
         <v>128</v>
       </c>
-      <c r="R11" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="S11" s="20">
+      <c r="S11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T11" s="20">
         <v>10</v>
       </c>
-      <c r="T11" s="22"/>
-      <c r="U11" s="21">
+      <c r="U11" s="59"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="21">
         <v>2</v>
       </c>
-      <c r="V11" s="19">
-        <v>1</v>
-      </c>
-      <c r="W11" s="19">
-        <v>100</v>
-      </c>
       <c r="X11" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z11" s="19">
         <v>255</v>
       </c>
-      <c r="Y11" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z11" s="20">
+      <c r="AA11" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB11" s="20">
         <v>10</v>
       </c>
-      <c r="AA11" s="22"/>
-    </row>
-    <row r="12" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="22"/>
+    </row>
+    <row r="12" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>91</v>
       </c>
@@ -2711,47 +2809,50 @@
       <c r="L12" s="20">
         <v>10</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23">
-        <v>0</v>
-      </c>
-      <c r="O12" s="20">
-        <v>1</v>
+      <c r="M12" s="59"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="23">
+        <v>0</v>
       </c>
       <c r="P12" s="20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="20">
         <v>100</v>
       </c>
-      <c r="R12" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="S12" s="20">
+      <c r="R12" s="20">
+        <v>100</v>
+      </c>
+      <c r="S12" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="T12" s="20">
         <v>11</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="23">
-        <v>0</v>
-      </c>
-      <c r="V12" s="20">
-        <v>1</v>
-      </c>
-      <c r="W12" s="20">
-        <v>100</v>
+      <c r="U12" s="59"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="23">
+        <v>0</v>
       </c>
       <c r="X12" s="20">
-        <v>100</v>
-      </c>
-      <c r="Y12" s="20" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="Y12" s="20">
+        <v>100</v>
       </c>
       <c r="Z12" s="20">
+        <v>100</v>
+      </c>
+      <c r="AA12" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB12" s="20">
         <v>12</v>
       </c>
-      <c r="AA12" s="22"/>
-    </row>
-    <row r="13" spans="2:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="22"/>
+    </row>
+    <row r="13" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="E13" s="48" t="s">
         <v>112</v>
       </c>
@@ -2776,47 +2877,50 @@
       <c r="L13" s="20">
         <v>10</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="23">
-        <v>0</v>
-      </c>
-      <c r="O13" s="20">
-        <v>1</v>
+      <c r="M13" s="59"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="23">
+        <v>0</v>
       </c>
       <c r="P13" s="20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="20">
         <v>100</v>
       </c>
-      <c r="R13" s="20" t="s">
+      <c r="R13" s="20">
+        <v>100</v>
+      </c>
+      <c r="S13" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="S13" s="20">
+      <c r="T13" s="20">
         <v>11</v>
       </c>
-      <c r="T13" s="22"/>
-      <c r="U13" s="23">
-        <v>0</v>
-      </c>
-      <c r="V13" s="20">
-        <v>1</v>
-      </c>
-      <c r="W13" s="20">
-        <v>100</v>
+      <c r="U13" s="59"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="23">
+        <v>0</v>
       </c>
       <c r="X13" s="20">
-        <v>100</v>
-      </c>
-      <c r="Y13" s="20" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="Y13" s="20">
+        <v>100</v>
       </c>
       <c r="Z13" s="20">
+        <v>100</v>
+      </c>
+      <c r="AA13" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB13" s="20">
         <v>12</v>
       </c>
-      <c r="AA13" s="22"/>
-    </row>
-    <row r="14" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="22"/>
+    </row>
+    <row r="14" spans="2:42" x14ac:dyDescent="0.25">
       <c r="E14" s="48" t="s">
         <v>113</v>
       </c>
@@ -2841,47 +2945,50 @@
       <c r="L14" s="20">
         <v>10</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23">
-        <v>0</v>
-      </c>
-      <c r="O14" s="20">
-        <v>1</v>
+      <c r="M14" s="59"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="23">
+        <v>0</v>
       </c>
       <c r="P14" s="20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="20">
         <v>100</v>
       </c>
-      <c r="R14" s="20" t="s">
+      <c r="R14" s="20">
+        <v>100</v>
+      </c>
+      <c r="S14" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="S14" s="20">
+      <c r="T14" s="20">
         <v>11</v>
       </c>
-      <c r="T14" s="22"/>
-      <c r="U14" s="23">
-        <v>0</v>
-      </c>
-      <c r="V14" s="20">
-        <v>1</v>
-      </c>
-      <c r="W14" s="20">
-        <v>100</v>
+      <c r="U14" s="59"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="23">
+        <v>0</v>
       </c>
       <c r="X14" s="20">
-        <v>100</v>
-      </c>
-      <c r="Y14" s="20" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="20">
+        <v>100</v>
       </c>
       <c r="Z14" s="20">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB14" s="20">
         <v>12</v>
       </c>
-      <c r="AA14" s="22"/>
-    </row>
-    <row r="15" spans="2:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="22"/>
+    </row>
+    <row r="15" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="E15" s="48" t="s">
         <v>114</v>
       </c>
@@ -2906,47 +3013,50 @@
       <c r="L15" s="20">
         <v>10</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="23">
-        <v>0</v>
-      </c>
-      <c r="O15" s="20">
-        <v>1</v>
+      <c r="M15" s="59"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="23">
+        <v>0</v>
       </c>
       <c r="P15" s="20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="20">
         <v>100</v>
       </c>
-      <c r="R15" s="20" t="s">
+      <c r="R15" s="20">
+        <v>100</v>
+      </c>
+      <c r="S15" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="S15" s="20">
+      <c r="T15" s="20">
         <v>10</v>
       </c>
-      <c r="T15" s="22"/>
-      <c r="U15" s="23">
-        <v>0</v>
-      </c>
-      <c r="V15" s="20">
-        <v>1</v>
-      </c>
-      <c r="W15" s="20">
-        <v>100</v>
+      <c r="U15" s="59"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="23">
+        <v>0</v>
       </c>
       <c r="X15" s="20">
-        <v>100</v>
-      </c>
-      <c r="Y15" s="20" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="20">
+        <v>100</v>
       </c>
       <c r="Z15" s="20">
+        <v>100</v>
+      </c>
+      <c r="AA15" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB15" s="20">
         <v>10</v>
       </c>
-      <c r="AA15" s="22"/>
-    </row>
-    <row r="16" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="22"/>
+    </row>
+    <row r="16" spans="2:42" x14ac:dyDescent="0.25">
       <c r="E16" s="48" t="s">
         <v>115</v>
       </c>
@@ -2971,47 +3081,50 @@
       <c r="L16" s="20">
         <v>10</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23">
-        <v>0</v>
-      </c>
-      <c r="O16" s="20">
-        <v>1</v>
+      <c r="M16" s="59"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="23">
+        <v>0</v>
       </c>
       <c r="P16" s="20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="20">
         <v>100</v>
       </c>
-      <c r="R16" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="S16" s="20">
+      <c r="R16" s="20">
+        <v>100</v>
+      </c>
+      <c r="S16" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="T16" s="20">
         <v>10</v>
       </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="23">
-        <v>0</v>
-      </c>
-      <c r="V16" s="20">
-        <v>1</v>
-      </c>
-      <c r="W16" s="20">
-        <v>100</v>
+      <c r="U16" s="59"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="23">
+        <v>0</v>
       </c>
       <c r="X16" s="20">
-        <v>100</v>
-      </c>
-      <c r="Y16" s="20" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="Y16" s="20">
+        <v>100</v>
       </c>
       <c r="Z16" s="20">
+        <v>100</v>
+      </c>
+      <c r="AA16" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB16" s="20">
         <v>10</v>
       </c>
-      <c r="AA16" s="22"/>
-    </row>
-    <row r="17" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="22"/>
+    </row>
+    <row r="17" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E17" s="48" t="s">
         <v>116</v>
       </c>
@@ -3036,47 +3149,50 @@
       <c r="L17" s="20">
         <v>10</v>
       </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23">
-        <v>0</v>
-      </c>
-      <c r="O17" s="20">
-        <v>1</v>
+      <c r="M17" s="59"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="23">
+        <v>0</v>
       </c>
       <c r="P17" s="20">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="20">
         <v>100</v>
       </c>
-      <c r="R17" s="20" t="s">
+      <c r="R17" s="20">
+        <v>100</v>
+      </c>
+      <c r="S17" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="S17" s="20">
+      <c r="T17" s="20">
         <v>10</v>
       </c>
-      <c r="T17" s="22"/>
-      <c r="U17" s="23">
-        <v>0</v>
-      </c>
-      <c r="V17" s="20">
-        <v>1</v>
-      </c>
-      <c r="W17" s="20">
-        <v>100</v>
+      <c r="U17" s="59"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="23">
+        <v>0</v>
       </c>
       <c r="X17" s="20">
-        <v>100</v>
-      </c>
-      <c r="Y17" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="20">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="20">
+        <v>100</v>
+      </c>
+      <c r="AA17" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="Z17" s="20">
+      <c r="AB17" s="20">
         <v>10</v>
       </c>
-      <c r="AA17" s="22"/>
-    </row>
-    <row r="18" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="22"/>
+    </row>
+    <row r="18" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E18" s="48" t="s">
         <v>117</v>
       </c>
@@ -3101,47 +3217,50 @@
       <c r="L18" s="20">
         <v>10</v>
       </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23">
-        <v>0</v>
-      </c>
-      <c r="O18" s="20">
-        <v>1</v>
+      <c r="M18" s="59"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="23">
+        <v>0</v>
       </c>
       <c r="P18" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="20">
         <v>105</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="R18" s="20">
         <v>128</v>
       </c>
-      <c r="R18" s="20" t="s">
+      <c r="S18" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="S18" s="20">
+      <c r="T18" s="20">
         <v>11</v>
       </c>
-      <c r="T18" s="22"/>
-      <c r="U18" s="23">
-        <v>0</v>
-      </c>
-      <c r="V18" s="20">
-        <v>1</v>
-      </c>
-      <c r="W18" s="20">
+      <c r="U18" s="59"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="23">
+        <v>0</v>
+      </c>
+      <c r="X18" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="20">
         <v>110</v>
       </c>
-      <c r="X18" s="20">
+      <c r="Z18" s="20">
         <v>156</v>
       </c>
-      <c r="Y18" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z18" s="20">
+      <c r="AA18" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB18" s="20">
         <v>12</v>
       </c>
-      <c r="AA18" s="22"/>
-    </row>
-    <row r="19" spans="5:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="22"/>
+    </row>
+    <row r="19" spans="5:30" ht="30" x14ac:dyDescent="0.25">
       <c r="E19" s="48" t="s">
         <v>118</v>
       </c>
@@ -3166,47 +3285,50 @@
       <c r="L19" s="20">
         <v>10</v>
       </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="23">
-        <v>0</v>
-      </c>
-      <c r="O19" s="20">
-        <v>1</v>
+      <c r="M19" s="59"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23">
+        <v>0</v>
       </c>
       <c r="P19" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="20">
         <v>105</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="R19" s="20">
         <v>128</v>
       </c>
-      <c r="R19" s="20" t="s">
+      <c r="S19" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="S19" s="20">
+      <c r="T19" s="20">
         <v>10</v>
       </c>
-      <c r="T19" s="22"/>
-      <c r="U19" s="23">
-        <v>0</v>
-      </c>
-      <c r="V19" s="20">
-        <v>1</v>
-      </c>
-      <c r="W19" s="20">
+      <c r="U19" s="59"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="23">
+        <v>0</v>
+      </c>
+      <c r="X19" s="20">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="20">
         <v>110</v>
       </c>
-      <c r="X19" s="20">
+      <c r="Z19" s="20">
         <v>156</v>
       </c>
-      <c r="Y19" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z19" s="20">
+      <c r="AA19" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB19" s="20">
         <v>10</v>
       </c>
-      <c r="AA19" s="22"/>
-    </row>
-    <row r="20" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="22"/>
+    </row>
+    <row r="20" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E20" s="48" t="s">
         <v>119</v>
       </c>
@@ -3231,47 +3353,50 @@
       <c r="L20" s="20">
         <v>20</v>
       </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="23">
-        <v>0</v>
-      </c>
-      <c r="O20" s="19">
-        <v>1</v>
+      <c r="M20" s="59"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="23">
+        <v>0</v>
       </c>
       <c r="P20" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="19">
         <v>102</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="R20" s="19">
         <v>128</v>
       </c>
-      <c r="R20" s="19" t="s">
+      <c r="S20" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="S20" s="20">
+      <c r="T20" s="20">
         <v>21</v>
       </c>
-      <c r="T20" s="22"/>
-      <c r="U20" s="21">
-        <v>0</v>
-      </c>
-      <c r="V20" s="19">
-        <v>1</v>
-      </c>
-      <c r="W20" s="19">
-        <v>100</v>
+      <c r="U20" s="59"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="21">
+        <v>0</v>
       </c>
       <c r="X20" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="19">
         <v>255</v>
       </c>
-      <c r="Y20" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z20" s="20">
+      <c r="AA20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB20" s="20">
         <v>22</v>
       </c>
-      <c r="AA20" s="22"/>
-    </row>
-    <row r="21" spans="5:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="22"/>
+    </row>
+    <row r="21" spans="5:30" ht="30" x14ac:dyDescent="0.25">
       <c r="E21" s="48" t="s">
         <v>120</v>
       </c>
@@ -3296,47 +3421,50 @@
       <c r="L21" s="20">
         <v>20</v>
       </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="23">
-        <v>0</v>
-      </c>
-      <c r="O21" s="19">
-        <v>1</v>
+      <c r="M21" s="59"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="23">
+        <v>0</v>
       </c>
       <c r="P21" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="19">
         <v>102</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="R21" s="19">
         <v>128</v>
       </c>
-      <c r="R21" s="19" t="s">
+      <c r="S21" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="S21" s="20">
+      <c r="T21" s="20">
         <v>21</v>
       </c>
-      <c r="T21" s="22"/>
-      <c r="U21" s="21">
-        <v>0</v>
-      </c>
-      <c r="V21" s="19">
-        <v>1</v>
-      </c>
-      <c r="W21" s="19">
-        <v>100</v>
+      <c r="U21" s="59"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="21">
+        <v>0</v>
       </c>
       <c r="X21" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z21" s="19">
         <v>255</v>
       </c>
-      <c r="Y21" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z21" s="20">
+      <c r="AA21" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB21" s="20">
         <v>22</v>
       </c>
-      <c r="AA21" s="22"/>
-    </row>
-    <row r="22" spans="5:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="22"/>
+    </row>
+    <row r="22" spans="5:30" ht="30" x14ac:dyDescent="0.25">
       <c r="E22" s="48" t="s">
         <v>121</v>
       </c>
@@ -3361,47 +3489,50 @@
       <c r="L22" s="20">
         <v>20</v>
       </c>
-      <c r="M22" s="22"/>
-      <c r="N22" s="23">
-        <v>0</v>
-      </c>
-      <c r="O22" s="19">
-        <v>1</v>
+      <c r="M22" s="59"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="23">
+        <v>0</v>
       </c>
       <c r="P22" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="19">
         <v>102</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="R22" s="19">
         <v>128</v>
       </c>
-      <c r="R22" s="19" t="s">
+      <c r="S22" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="S22" s="20">
+      <c r="T22" s="20">
         <v>20</v>
       </c>
-      <c r="T22" s="22"/>
-      <c r="U22" s="21">
-        <v>0</v>
-      </c>
-      <c r="V22" s="19">
-        <v>1</v>
-      </c>
-      <c r="W22" s="19">
-        <v>100</v>
+      <c r="U22" s="59"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="21">
+        <v>0</v>
       </c>
       <c r="X22" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="19">
         <v>255</v>
       </c>
-      <c r="Y22" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z22" s="20">
+      <c r="AA22" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB22" s="20">
         <v>20</v>
       </c>
-      <c r="AA22" s="22"/>
-    </row>
-    <row r="23" spans="5:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="22"/>
+    </row>
+    <row r="23" spans="5:30" ht="45" x14ac:dyDescent="0.25">
       <c r="E23" s="48" t="s">
         <v>122</v>
       </c>
@@ -3426,47 +3557,50 @@
       <c r="L23" s="20">
         <v>10</v>
       </c>
-      <c r="M23" s="22"/>
-      <c r="N23" s="21">
-        <v>0</v>
-      </c>
-      <c r="O23" s="19">
+      <c r="M23" s="59"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="21">
+        <v>0</v>
+      </c>
+      <c r="P23" s="19">
         <v>2</v>
       </c>
-      <c r="P23" s="19">
-        <v>100</v>
-      </c>
       <c r="Q23" s="19">
+        <v>100</v>
+      </c>
+      <c r="R23" s="19">
         <v>128</v>
       </c>
-      <c r="R23" s="19" t="s">
+      <c r="S23" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="S23" s="20">
+      <c r="T23" s="20">
         <v>11</v>
       </c>
-      <c r="T23" s="22"/>
-      <c r="U23" s="21">
-        <v>0</v>
-      </c>
-      <c r="V23" s="19">
-        <v>1</v>
-      </c>
-      <c r="W23" s="19">
-        <v>100</v>
+      <c r="U23" s="59"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="21">
+        <v>0</v>
       </c>
       <c r="X23" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="19">
         <v>128</v>
       </c>
-      <c r="Y23" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z23" s="20">
+      <c r="AA23" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB23" s="20">
         <v>32</v>
       </c>
-      <c r="AA23" s="22"/>
-    </row>
-    <row r="24" spans="5:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="22"/>
+    </row>
+    <row r="24" spans="5:30" ht="45" x14ac:dyDescent="0.25">
       <c r="E24" s="48" t="s">
         <v>153</v>
       </c>
@@ -3491,47 +3625,50 @@
       <c r="L24" s="20">
         <v>10</v>
       </c>
-      <c r="M24" s="22"/>
-      <c r="N24" s="21">
-        <v>0</v>
-      </c>
-      <c r="O24" s="19">
+      <c r="M24" s="59"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="21">
+        <v>0</v>
+      </c>
+      <c r="P24" s="19">
         <v>2</v>
       </c>
-      <c r="P24" s="19">
-        <v>100</v>
-      </c>
       <c r="Q24" s="19">
+        <v>100</v>
+      </c>
+      <c r="R24" s="19">
         <v>128</v>
       </c>
-      <c r="R24" s="19" t="s">
+      <c r="S24" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="S24" s="20">
+      <c r="T24" s="20">
         <v>11</v>
       </c>
-      <c r="T24" s="22"/>
-      <c r="U24" s="21">
-        <v>0</v>
-      </c>
-      <c r="V24" s="19">
-        <v>1</v>
-      </c>
-      <c r="W24" s="19">
-        <v>100</v>
+      <c r="U24" s="59"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="21">
+        <v>0</v>
       </c>
       <c r="X24" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z24" s="19">
         <v>128</v>
       </c>
-      <c r="Y24" s="19" t="s">
+      <c r="AA24" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="Z24" s="20">
+      <c r="AB24" s="20">
         <v>32</v>
       </c>
-      <c r="AA24" s="22"/>
-    </row>
-    <row r="25" spans="5:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="22"/>
+    </row>
+    <row r="25" spans="5:30" ht="45" x14ac:dyDescent="0.25">
       <c r="E25" s="48" t="s">
         <v>154</v>
       </c>
@@ -3556,47 +3693,50 @@
       <c r="L25" s="20">
         <v>50</v>
       </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="21">
-        <v>0</v>
-      </c>
-      <c r="O25" s="19">
+      <c r="M25" s="59"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="21">
+        <v>0</v>
+      </c>
+      <c r="P25" s="19">
         <v>2</v>
       </c>
-      <c r="P25" s="19">
-        <v>100</v>
-      </c>
       <c r="Q25" s="19">
+        <v>100</v>
+      </c>
+      <c r="R25" s="19">
         <v>128</v>
       </c>
-      <c r="R25" s="19" t="s">
+      <c r="S25" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="S25" s="20">
+      <c r="T25" s="20">
         <v>1000</v>
       </c>
-      <c r="T25" s="22"/>
-      <c r="U25" s="21">
-        <v>0</v>
-      </c>
-      <c r="V25" s="19">
-        <v>1</v>
-      </c>
-      <c r="W25" s="19">
-        <v>100</v>
+      <c r="U25" s="59"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="21">
+        <v>0</v>
       </c>
       <c r="X25" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z25" s="19">
         <v>128</v>
       </c>
-      <c r="Y25" s="19" t="s">
+      <c r="AA25" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="Z25" s="20">
+      <c r="AB25" s="20">
         <v>1002</v>
       </c>
-      <c r="AA25" s="22"/>
-    </row>
-    <row r="26" spans="5:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="22"/>
+    </row>
+    <row r="26" spans="5:30" ht="30" x14ac:dyDescent="0.25">
       <c r="E26" s="48" t="s">
         <v>155</v>
       </c>
@@ -3621,47 +3761,50 @@
       <c r="L26" s="20">
         <v>20</v>
       </c>
-      <c r="M26" s="22"/>
-      <c r="N26" s="23">
-        <v>0</v>
-      </c>
-      <c r="O26" s="19">
-        <v>1</v>
+      <c r="M26" s="59"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="23">
+        <v>0</v>
       </c>
       <c r="P26" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="19">
         <v>102</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="R26" s="19">
         <v>128</v>
       </c>
-      <c r="R26" s="19" t="s">
+      <c r="S26" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="S26" s="20">
+      <c r="T26" s="20">
         <v>21</v>
       </c>
-      <c r="T26" s="22"/>
-      <c r="U26" s="21">
-        <v>0</v>
-      </c>
-      <c r="V26" s="19">
+      <c r="U26" s="59"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="21">
+        <v>0</v>
+      </c>
+      <c r="X26" s="19">
         <v>2</v>
       </c>
-      <c r="W26" s="19">
-        <v>100</v>
-      </c>
-      <c r="X26" s="19">
+      <c r="Y26" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="19">
         <v>255</v>
       </c>
-      <c r="Y26" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z26" s="20">
+      <c r="AA26" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB26" s="20">
         <v>22</v>
       </c>
-      <c r="AA26" s="22"/>
-    </row>
-    <row r="27" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="22"/>
+    </row>
+    <row r="27" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E27" s="48" t="s">
         <v>156</v>
       </c>
@@ -3686,47 +3829,50 @@
       <c r="L27" s="20">
         <v>10</v>
       </c>
-      <c r="M27" s="22"/>
-      <c r="N27" s="23">
-        <v>0</v>
-      </c>
-      <c r="O27" s="19">
-        <v>1</v>
+      <c r="M27" s="59"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="23">
+        <v>0</v>
       </c>
       <c r="P27" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="19">
         <v>102</v>
       </c>
-      <c r="Q27" s="19">
+      <c r="R27" s="19">
         <v>128</v>
       </c>
-      <c r="R27" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="S27" s="20">
+      <c r="S27" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T27" s="20">
         <v>21</v>
       </c>
-      <c r="T27" s="22"/>
-      <c r="U27" s="21">
-        <v>0</v>
-      </c>
-      <c r="V27" s="19">
-        <v>1</v>
-      </c>
-      <c r="W27" s="19">
+      <c r="U27" s="59"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="21">
+        <v>0</v>
+      </c>
+      <c r="X27" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="19">
         <v>104</v>
       </c>
-      <c r="X27" s="19">
+      <c r="Z27" s="19">
         <v>128</v>
       </c>
-      <c r="Y27" s="19" t="s">
+      <c r="AA27" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="Z27" s="20">
+      <c r="AB27" s="20">
         <v>22</v>
       </c>
-      <c r="AA27" s="22"/>
-    </row>
-    <row r="28" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="22"/>
+    </row>
+    <row r="28" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E28" s="48" t="s">
         <v>157</v>
       </c>
@@ -3751,47 +3897,50 @@
       <c r="L28" s="20">
         <v>10</v>
       </c>
-      <c r="M28" s="22"/>
-      <c r="N28" s="23">
-        <v>1</v>
-      </c>
-      <c r="O28" s="19">
+      <c r="M28" s="59"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="23">
         <v>1</v>
       </c>
       <c r="P28" s="19">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="19">
         <v>102</v>
       </c>
-      <c r="Q28" s="19">
+      <c r="R28" s="19">
         <v>128</v>
       </c>
-      <c r="R28" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="S28" s="20">
+      <c r="S28" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="T28" s="20">
         <v>21</v>
       </c>
-      <c r="T28" s="22"/>
-      <c r="U28" s="21">
+      <c r="U28" s="59"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="21">
         <v>2</v>
       </c>
-      <c r="V28" s="19">
-        <v>1</v>
-      </c>
-      <c r="W28" s="19">
+      <c r="X28" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="19">
         <v>104</v>
       </c>
-      <c r="X28" s="19">
+      <c r="Z28" s="19">
         <v>128</v>
       </c>
-      <c r="Y28" s="19" t="s">
+      <c r="AA28" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="Z28" s="20">
+      <c r="AB28" s="20">
         <v>22</v>
       </c>
-      <c r="AA28" s="22"/>
-    </row>
-    <row r="29" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="22"/>
+    </row>
+    <row r="29" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E29" s="48" t="s">
         <v>164</v>
       </c>
@@ -3802,23 +3951,26 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="20"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="19"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="23"/>
       <c r="P29" s="19"/>
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="21"/>
       <c r="X29" s="19"/>
       <c r="Y29" s="19"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="22"/>
-    </row>
-    <row r="30" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="22"/>
+    </row>
+    <row r="30" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E30" s="48" t="s">
         <v>165</v>
       </c>
@@ -3829,23 +3981,26 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="20"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="19"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="23"/>
       <c r="P30" s="19"/>
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="21"/>
       <c r="X30" s="19"/>
       <c r="Y30" s="19"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="22"/>
-    </row>
-    <row r="31" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="22"/>
+    </row>
+    <row r="31" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E31" s="48" t="s">
         <v>166</v>
       </c>
@@ -3856,23 +4011,26 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
       <c r="L31" s="20"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="19"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="23"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
       <c r="R31" s="19"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="21"/>
       <c r="X31" s="19"/>
       <c r="Y31" s="19"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="22"/>
-    </row>
-    <row r="32" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="22"/>
+    </row>
+    <row r="32" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E32" s="48" t="s">
         <v>167</v>
       </c>
@@ -3883,23 +4041,26 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="20"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="19"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="23"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="19"/>
-      <c r="W32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="21"/>
       <c r="X32" s="19"/>
       <c r="Y32" s="19"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="22"/>
-    </row>
-    <row r="33" spans="5:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="22"/>
+    </row>
+    <row r="33" spans="5:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="49" t="s">
         <v>168</v>
       </c>
@@ -3910,31 +4071,34 @@
       <c r="J33" s="42"/>
       <c r="K33" s="42"/>
       <c r="L33" s="43"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="42"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="46"/>
       <c r="P33" s="42"/>
       <c r="Q33" s="42"/>
       <c r="R33" s="42"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="45"/>
       <c r="X33" s="42"/>
       <c r="Y33" s="42"/>
-      <c r="Z33" s="43"/>
-      <c r="AA33" s="44"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="42"/>
+      <c r="AB33" s="43"/>
+      <c r="AC33" s="60"/>
+      <c r="AD33" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="AH2:AM2"/>
+    <mergeCell ref="AE2:AJ2"/>
+    <mergeCell ref="AK2:AP2"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="U2:AA2"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="O2:V2"/>
+    <mergeCell ref="W2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TESTCASES/MSD_Project_Notes_Updated.xlsx
+++ b/TESTCASES/MSD_Project_Notes_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSD\PROJECT1\MSD\TESTCASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5877174-C129-45E3-A583-73A9C97126E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5DC869-FE7D-4D8A-8027-D5CC5355B95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FCDD92B1-2F49-4B23-9115-79F9BBEC6A93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FCDD92B1-2F49-4B23-9115-79F9BBEC6A93}"/>
   </bookViews>
   <sheets>
     <sheet name="SPECS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="182">
   <si>
     <t>ROW</t>
   </si>
@@ -555,6 +555,39 @@
   </si>
   <si>
     <t>Time in</t>
+  </si>
+  <si>
+    <t>Bankgroup</t>
+  </si>
+  <si>
+    <t>Time(Delays)</t>
+  </si>
+  <si>
+    <t>1st Access</t>
+  </si>
+  <si>
+    <t>Other Access</t>
+  </si>
+  <si>
+    <t>tRCD+CL+tBURST</t>
+  </si>
+  <si>
+    <t>tCCDL+CL+tBURST</t>
+  </si>
+  <si>
+    <t>tRCD+CL+tBURST+tRRDL</t>
+  </si>
+  <si>
+    <t>tRCD+CL+tBURST+tRRDS</t>
+  </si>
+  <si>
+    <t>tRTP+tRTP(Additional)</t>
+  </si>
+  <si>
+    <t>1-Same</t>
+  </si>
+  <si>
+    <t>0-Different</t>
   </si>
 </sst>
 </file>
@@ -608,7 +641,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1111,11 +1144,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1173,6 +1245,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1188,28 +1278,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1221,12 +1299,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1541,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA93103-3926-484A-A580-67BFEC347CB4}">
-  <dimension ref="B1:R19"/>
+  <dimension ref="B1:AA19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,19 +1656,22 @@
     <col min="17" max="17" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="44" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="35" t="s">
+    <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="E2" s="37" t="s">
+      <c r="C2" s="50"/>
+      <c r="E2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="38"/>
+      <c r="F2" s="52"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1610,7 +1703,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1653,8 +1746,24 @@
       <c r="R3" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="U3" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="V3" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="W3" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="X3" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y3" s="50"/>
+    </row>
+    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
@@ -1679,8 +1788,21 @@
       <c r="R4" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T4" s="65"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y4" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1699,8 +1821,27 @@
       <c r="R5" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T5" s="61">
+        <v>1</v>
+      </c>
+      <c r="U5" s="44">
+        <v>1</v>
+      </c>
+      <c r="V5" s="44">
+        <v>1</v>
+      </c>
+      <c r="W5" s="44">
+        <v>1</v>
+      </c>
+      <c r="X5" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y5" s="29"/>
+      <c r="AA5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1719,8 +1860,24 @@
       <c r="R6" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T6" s="23">
+        <v>1</v>
+      </c>
+      <c r="U6" s="20">
+        <v>1</v>
+      </c>
+      <c r="V6" s="20">
+        <v>1</v>
+      </c>
+      <c r="W6" s="20">
+        <v>0</v>
+      </c>
+      <c r="X6" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y6" s="22"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
@@ -1739,8 +1896,26 @@
       <c r="R7" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T7" s="23">
+        <v>1</v>
+      </c>
+      <c r="U7" s="20">
+        <v>1</v>
+      </c>
+      <c r="V7" s="20">
+        <v>0</v>
+      </c>
+      <c r="W7" s="20">
+        <v>0</v>
+      </c>
+      <c r="X7" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y7" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1759,8 +1934,26 @@
       <c r="R8" s="14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T8" s="23">
+        <v>1</v>
+      </c>
+      <c r="U8" s="20">
+        <v>0</v>
+      </c>
+      <c r="V8" s="20">
+        <v>0</v>
+      </c>
+      <c r="W8" s="20">
+        <v>0</v>
+      </c>
+      <c r="X8" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y8" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="7" t="s">
         <v>23</v>
       </c>
@@ -1779,8 +1972,26 @@
       <c r="R9" s="14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T9" s="39">
+        <v>0</v>
+      </c>
+      <c r="U9" s="36">
+        <v>0</v>
+      </c>
+      <c r="V9" s="36">
+        <v>0</v>
+      </c>
+      <c r="W9" s="36">
+        <v>0</v>
+      </c>
+      <c r="X9" s="44" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y9" s="22" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E10" s="7" t="s">
         <v>24</v>
       </c>
@@ -1800,7 +2011,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E11" s="7" t="s">
         <v>25</v>
       </c>
@@ -1820,7 +2031,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="8" t="s">
         <v>20</v>
       </c>
@@ -1840,7 +2051,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="O13" s="18" t="s">
         <v>61</v>
       </c>
@@ -1854,7 +2065,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="O14" s="18" t="s">
         <v>64</v>
       </c>
@@ -1868,7 +2079,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="O15" s="18" t="s">
         <v>66</v>
       </c>
@@ -1882,7 +2093,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="O16" s="18" t="s">
         <v>68</v>
       </c>
@@ -1939,9 +2150,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="7">
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1993,7 +2209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00540E82-C942-4C51-B076-78D9BC70138E}">
   <dimension ref="B1:AP33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
@@ -2049,61 +2265,61 @@
       <c r="C2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="54">
-        <v>1</v>
-      </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="54">
+      <c r="G2" s="58">
+        <v>1</v>
+      </c>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="58">
         <v>2</v>
       </c>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="54">
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="58">
         <v>3</v>
       </c>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
     </row>
     <row r="3" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="53"/>
-      <c r="F3" s="41"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="57"/>
       <c r="G3" s="30" t="s">
         <v>128</v>
       </c>
@@ -2122,7 +2338,7 @@
       <c r="L3" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="45" t="s">
         <v>170</v>
       </c>
       <c r="N3" s="32" t="s">
@@ -2146,7 +2362,7 @@
       <c r="T3" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="U3" s="57" t="s">
+      <c r="U3" s="45" t="s">
         <v>170</v>
       </c>
       <c r="V3" s="32" t="s">
@@ -2170,7 +2386,7 @@
       <c r="AB3" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="AC3" s="57" t="s">
+      <c r="AC3" s="45" t="s">
         <v>170</v>
       </c>
       <c r="AD3" s="32" t="s">
@@ -2196,7 +2412,7 @@
       <c r="C4" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="43" t="s">
         <v>103</v>
       </c>
       <c r="F4" s="26" t="s">
@@ -2217,10 +2433,10 @@
       <c r="K4" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="L4" s="52">
+      <c r="L4" s="44">
         <v>10</v>
       </c>
-      <c r="M4" s="58"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="29"/>
       <c r="O4" s="27">
         <v>0</v>
@@ -2237,10 +2453,10 @@
       <c r="S4" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="T4" s="52">
+      <c r="T4" s="44">
         <v>11</v>
       </c>
-      <c r="U4" s="58"/>
+      <c r="U4" s="46"/>
       <c r="V4" s="29"/>
       <c r="W4" s="27">
         <v>0</v>
@@ -2257,10 +2473,10 @@
       <c r="AA4" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AB4" s="52">
+      <c r="AB4" s="44">
         <v>12</v>
       </c>
-      <c r="AC4" s="58"/>
+      <c r="AC4" s="46"/>
       <c r="AD4" s="29"/>
     </row>
     <row r="5" spans="2:42" x14ac:dyDescent="0.25">
@@ -2270,7 +2486,7 @@
       <c r="C5" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="40" t="s">
         <v>104</v>
       </c>
       <c r="F5" s="24" t="s">
@@ -2294,7 +2510,7 @@
       <c r="L5" s="20">
         <v>10</v>
       </c>
-      <c r="M5" s="59"/>
+      <c r="M5" s="47"/>
       <c r="N5" s="22"/>
       <c r="O5" s="23">
         <v>0</v>
@@ -2314,7 +2530,7 @@
       <c r="T5" s="20">
         <v>11</v>
       </c>
-      <c r="U5" s="59"/>
+      <c r="U5" s="47"/>
       <c r="V5" s="22"/>
       <c r="W5" s="21">
         <v>0</v>
@@ -2334,7 +2550,7 @@
       <c r="AB5" s="20">
         <v>12</v>
       </c>
-      <c r="AC5" s="59"/>
+      <c r="AC5" s="47"/>
       <c r="AD5" s="22"/>
     </row>
     <row r="6" spans="2:42" ht="30" x14ac:dyDescent="0.25">
@@ -2344,7 +2560,7 @@
       <c r="C6" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="40" t="s">
         <v>105</v>
       </c>
       <c r="F6" s="25" t="s">
@@ -2368,7 +2584,7 @@
       <c r="L6" s="20">
         <v>10</v>
       </c>
-      <c r="M6" s="59"/>
+      <c r="M6" s="47"/>
       <c r="N6" s="22"/>
       <c r="O6" s="21">
         <v>0</v>
@@ -2388,7 +2604,7 @@
       <c r="T6" s="20">
         <v>10</v>
       </c>
-      <c r="U6" s="59"/>
+      <c r="U6" s="47"/>
       <c r="V6" s="22"/>
       <c r="W6" s="21">
         <v>0</v>
@@ -2408,7 +2624,7 @@
       <c r="AB6" s="20">
         <v>10</v>
       </c>
-      <c r="AC6" s="59"/>
+      <c r="AC6" s="47"/>
       <c r="AD6" s="22"/>
     </row>
     <row r="7" spans="2:42" ht="30" x14ac:dyDescent="0.25">
@@ -2418,7 +2634,7 @@
       <c r="C7" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="40" t="s">
         <v>106</v>
       </c>
       <c r="F7" s="25" t="s">
@@ -2442,7 +2658,7 @@
       <c r="L7" s="20">
         <v>10</v>
       </c>
-      <c r="M7" s="59"/>
+      <c r="M7" s="47"/>
       <c r="N7" s="22"/>
       <c r="O7" s="23">
         <v>0</v>
@@ -2462,7 +2678,7 @@
       <c r="T7" s="20">
         <v>10</v>
       </c>
-      <c r="U7" s="59"/>
+      <c r="U7" s="47"/>
       <c r="V7" s="22"/>
       <c r="W7" s="21">
         <v>0</v>
@@ -2482,7 +2698,7 @@
       <c r="AB7" s="20">
         <v>10</v>
       </c>
-      <c r="AC7" s="59"/>
+      <c r="AC7" s="47"/>
       <c r="AD7" s="22"/>
     </row>
     <row r="8" spans="2:42" x14ac:dyDescent="0.25">
@@ -2492,7 +2708,7 @@
       <c r="C8" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="40" t="s">
         <v>107</v>
       </c>
       <c r="F8" s="24" t="s">
@@ -2516,7 +2732,7 @@
       <c r="L8" s="20">
         <v>10</v>
       </c>
-      <c r="M8" s="59"/>
+      <c r="M8" s="47"/>
       <c r="N8" s="22"/>
       <c r="O8" s="23">
         <v>0</v>
@@ -2536,7 +2752,7 @@
       <c r="T8" s="20">
         <v>11</v>
       </c>
-      <c r="U8" s="59"/>
+      <c r="U8" s="47"/>
       <c r="V8" s="22"/>
       <c r="W8" s="21">
         <v>0</v>
@@ -2556,7 +2772,7 @@
       <c r="AB8" s="20">
         <v>12</v>
       </c>
-      <c r="AC8" s="59"/>
+      <c r="AC8" s="47"/>
       <c r="AD8" s="22"/>
     </row>
     <row r="9" spans="2:42" x14ac:dyDescent="0.25">
@@ -2566,7 +2782,7 @@
       <c r="C9" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="40" t="s">
         <v>108</v>
       </c>
       <c r="F9" s="24" t="s">
@@ -2590,7 +2806,7 @@
       <c r="L9" s="20">
         <v>10</v>
       </c>
-      <c r="M9" s="59"/>
+      <c r="M9" s="47"/>
       <c r="N9" s="22"/>
       <c r="O9" s="21">
         <v>1</v>
@@ -2610,7 +2826,7 @@
       <c r="T9" s="20">
         <v>11</v>
       </c>
-      <c r="U9" s="59"/>
+      <c r="U9" s="47"/>
       <c r="V9" s="22"/>
       <c r="W9" s="21">
         <v>2</v>
@@ -2630,7 +2846,7 @@
       <c r="AB9" s="20">
         <v>12</v>
       </c>
-      <c r="AC9" s="59"/>
+      <c r="AC9" s="47"/>
       <c r="AD9" s="22"/>
     </row>
     <row r="10" spans="2:42" ht="30" x14ac:dyDescent="0.25">
@@ -2640,7 +2856,7 @@
       <c r="C10" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="40" t="s">
         <v>109</v>
       </c>
       <c r="F10" s="25" t="s">
@@ -2664,7 +2880,7 @@
       <c r="L10" s="20">
         <v>10</v>
       </c>
-      <c r="M10" s="59"/>
+      <c r="M10" s="47"/>
       <c r="N10" s="22"/>
       <c r="O10" s="23">
         <v>0</v>
@@ -2684,7 +2900,7 @@
       <c r="T10" s="20">
         <v>10</v>
       </c>
-      <c r="U10" s="59"/>
+      <c r="U10" s="47"/>
       <c r="V10" s="22"/>
       <c r="W10" s="21">
         <v>0</v>
@@ -2704,7 +2920,7 @@
       <c r="AB10" s="20">
         <v>10</v>
       </c>
-      <c r="AC10" s="59"/>
+      <c r="AC10" s="47"/>
       <c r="AD10" s="22"/>
     </row>
     <row r="11" spans="2:42" x14ac:dyDescent="0.25">
@@ -2714,7 +2930,7 @@
       <c r="C11" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="40" t="s">
         <v>110</v>
       </c>
       <c r="F11" s="24" t="s">
@@ -2738,7 +2954,7 @@
       <c r="L11" s="20">
         <v>10</v>
       </c>
-      <c r="M11" s="59"/>
+      <c r="M11" s="47"/>
       <c r="N11" s="22"/>
       <c r="O11" s="21">
         <v>1</v>
@@ -2758,7 +2974,7 @@
       <c r="T11" s="20">
         <v>10</v>
       </c>
-      <c r="U11" s="59"/>
+      <c r="U11" s="47"/>
       <c r="V11" s="22"/>
       <c r="W11" s="21">
         <v>2</v>
@@ -2778,14 +2994,14 @@
       <c r="AB11" s="20">
         <v>10</v>
       </c>
-      <c r="AC11" s="59"/>
+      <c r="AC11" s="47"/>
       <c r="AD11" s="22"/>
     </row>
     <row r="12" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="40" t="s">
         <v>111</v>
       </c>
       <c r="F12" s="24" t="s">
@@ -2809,7 +3025,7 @@
       <c r="L12" s="20">
         <v>10</v>
       </c>
-      <c r="M12" s="59"/>
+      <c r="M12" s="47"/>
       <c r="N12" s="22"/>
       <c r="O12" s="23">
         <v>0</v>
@@ -2829,7 +3045,7 @@
       <c r="T12" s="20">
         <v>11</v>
       </c>
-      <c r="U12" s="59"/>
+      <c r="U12" s="47"/>
       <c r="V12" s="22"/>
       <c r="W12" s="23">
         <v>0</v>
@@ -2849,11 +3065,11 @@
       <c r="AB12" s="20">
         <v>12</v>
       </c>
-      <c r="AC12" s="59"/>
+      <c r="AC12" s="47"/>
       <c r="AD12" s="22"/>
     </row>
     <row r="13" spans="2:42" ht="30" x14ac:dyDescent="0.25">
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="40" t="s">
         <v>112</v>
       </c>
       <c r="F13" s="25" t="s">
@@ -2877,7 +3093,7 @@
       <c r="L13" s="20">
         <v>10</v>
       </c>
-      <c r="M13" s="59"/>
+      <c r="M13" s="47"/>
       <c r="N13" s="22"/>
       <c r="O13" s="23">
         <v>0</v>
@@ -2897,7 +3113,7 @@
       <c r="T13" s="20">
         <v>11</v>
       </c>
-      <c r="U13" s="59"/>
+      <c r="U13" s="47"/>
       <c r="V13" s="22"/>
       <c r="W13" s="23">
         <v>0</v>
@@ -2917,11 +3133,11 @@
       <c r="AB13" s="20">
         <v>12</v>
       </c>
-      <c r="AC13" s="59"/>
+      <c r="AC13" s="47"/>
       <c r="AD13" s="22"/>
     </row>
     <row r="14" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="40" t="s">
         <v>113</v>
       </c>
       <c r="F14" s="24" t="s">
@@ -2945,7 +3161,7 @@
       <c r="L14" s="20">
         <v>10</v>
       </c>
-      <c r="M14" s="59"/>
+      <c r="M14" s="47"/>
       <c r="N14" s="22"/>
       <c r="O14" s="23">
         <v>0</v>
@@ -2965,7 +3181,7 @@
       <c r="T14" s="20">
         <v>11</v>
       </c>
-      <c r="U14" s="59"/>
+      <c r="U14" s="47"/>
       <c r="V14" s="22"/>
       <c r="W14" s="23">
         <v>0</v>
@@ -2985,11 +3201,11 @@
       <c r="AB14" s="20">
         <v>12</v>
       </c>
-      <c r="AC14" s="59"/>
+      <c r="AC14" s="47"/>
       <c r="AD14" s="22"/>
     </row>
     <row r="15" spans="2:42" ht="30" x14ac:dyDescent="0.25">
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="40" t="s">
         <v>114</v>
       </c>
       <c r="F15" s="25" t="s">
@@ -3013,7 +3229,7 @@
       <c r="L15" s="20">
         <v>10</v>
       </c>
-      <c r="M15" s="59"/>
+      <c r="M15" s="47"/>
       <c r="N15" s="22"/>
       <c r="O15" s="23">
         <v>0</v>
@@ -3033,7 +3249,7 @@
       <c r="T15" s="20">
         <v>10</v>
       </c>
-      <c r="U15" s="59"/>
+      <c r="U15" s="47"/>
       <c r="V15" s="22"/>
       <c r="W15" s="23">
         <v>0</v>
@@ -3053,11 +3269,11 @@
       <c r="AB15" s="20">
         <v>10</v>
       </c>
-      <c r="AC15" s="59"/>
+      <c r="AC15" s="47"/>
       <c r="AD15" s="22"/>
     </row>
     <row r="16" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="40" t="s">
         <v>115</v>
       </c>
       <c r="F16" s="24" t="s">
@@ -3081,7 +3297,7 @@
       <c r="L16" s="20">
         <v>10</v>
       </c>
-      <c r="M16" s="59"/>
+      <c r="M16" s="47"/>
       <c r="N16" s="22"/>
       <c r="O16" s="23">
         <v>0</v>
@@ -3101,7 +3317,7 @@
       <c r="T16" s="20">
         <v>10</v>
       </c>
-      <c r="U16" s="59"/>
+      <c r="U16" s="47"/>
       <c r="V16" s="22"/>
       <c r="W16" s="23">
         <v>0</v>
@@ -3121,11 +3337,11 @@
       <c r="AB16" s="20">
         <v>10</v>
       </c>
-      <c r="AC16" s="59"/>
+      <c r="AC16" s="47"/>
       <c r="AD16" s="22"/>
     </row>
     <row r="17" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="40" t="s">
         <v>116</v>
       </c>
       <c r="F17" s="24" t="s">
@@ -3149,7 +3365,7 @@
       <c r="L17" s="20">
         <v>10</v>
       </c>
-      <c r="M17" s="59"/>
+      <c r="M17" s="47"/>
       <c r="N17" s="22"/>
       <c r="O17" s="23">
         <v>0</v>
@@ -3169,7 +3385,7 @@
       <c r="T17" s="20">
         <v>10</v>
       </c>
-      <c r="U17" s="59"/>
+      <c r="U17" s="47"/>
       <c r="V17" s="22"/>
       <c r="W17" s="23">
         <v>0</v>
@@ -3189,11 +3405,11 @@
       <c r="AB17" s="20">
         <v>10</v>
       </c>
-      <c r="AC17" s="59"/>
+      <c r="AC17" s="47"/>
       <c r="AD17" s="22"/>
     </row>
     <row r="18" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="40" t="s">
         <v>117</v>
       </c>
       <c r="F18" s="24" t="s">
@@ -3217,7 +3433,7 @@
       <c r="L18" s="20">
         <v>10</v>
       </c>
-      <c r="M18" s="59"/>
+      <c r="M18" s="47"/>
       <c r="N18" s="22"/>
       <c r="O18" s="23">
         <v>0</v>
@@ -3237,7 +3453,7 @@
       <c r="T18" s="20">
         <v>11</v>
       </c>
-      <c r="U18" s="59"/>
+      <c r="U18" s="47"/>
       <c r="V18" s="22"/>
       <c r="W18" s="23">
         <v>0</v>
@@ -3257,11 +3473,11 @@
       <c r="AB18" s="20">
         <v>12</v>
       </c>
-      <c r="AC18" s="59"/>
+      <c r="AC18" s="47"/>
       <c r="AD18" s="22"/>
     </row>
     <row r="19" spans="5:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="40" t="s">
         <v>118</v>
       </c>
       <c r="F19" s="25" t="s">
@@ -3285,7 +3501,7 @@
       <c r="L19" s="20">
         <v>10</v>
       </c>
-      <c r="M19" s="59"/>
+      <c r="M19" s="47"/>
       <c r="N19" s="22"/>
       <c r="O19" s="23">
         <v>0</v>
@@ -3305,7 +3521,7 @@
       <c r="T19" s="20">
         <v>10</v>
       </c>
-      <c r="U19" s="59"/>
+      <c r="U19" s="47"/>
       <c r="V19" s="22"/>
       <c r="W19" s="23">
         <v>0</v>
@@ -3325,11 +3541,11 @@
       <c r="AB19" s="20">
         <v>10</v>
       </c>
-      <c r="AC19" s="59"/>
+      <c r="AC19" s="47"/>
       <c r="AD19" s="22"/>
     </row>
     <row r="20" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="40" t="s">
         <v>119</v>
       </c>
       <c r="F20" s="25" t="s">
@@ -3353,7 +3569,7 @@
       <c r="L20" s="20">
         <v>20</v>
       </c>
-      <c r="M20" s="59"/>
+      <c r="M20" s="47"/>
       <c r="N20" s="22"/>
       <c r="O20" s="23">
         <v>0</v>
@@ -3373,7 +3589,7 @@
       <c r="T20" s="20">
         <v>21</v>
       </c>
-      <c r="U20" s="59"/>
+      <c r="U20" s="47"/>
       <c r="V20" s="22"/>
       <c r="W20" s="21">
         <v>0</v>
@@ -3393,11 +3609,11 @@
       <c r="AB20" s="20">
         <v>22</v>
       </c>
-      <c r="AC20" s="59"/>
+      <c r="AC20" s="47"/>
       <c r="AD20" s="22"/>
     </row>
     <row r="21" spans="5:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="40" t="s">
         <v>120</v>
       </c>
       <c r="F21" s="34" t="s">
@@ -3421,7 +3637,7 @@
       <c r="L21" s="20">
         <v>20</v>
       </c>
-      <c r="M21" s="59"/>
+      <c r="M21" s="47"/>
       <c r="N21" s="22"/>
       <c r="O21" s="23">
         <v>0</v>
@@ -3441,7 +3657,7 @@
       <c r="T21" s="20">
         <v>21</v>
       </c>
-      <c r="U21" s="59"/>
+      <c r="U21" s="47"/>
       <c r="V21" s="22"/>
       <c r="W21" s="21">
         <v>0</v>
@@ -3461,11 +3677,11 @@
       <c r="AB21" s="20">
         <v>22</v>
       </c>
-      <c r="AC21" s="59"/>
+      <c r="AC21" s="47"/>
       <c r="AD21" s="22"/>
     </row>
     <row r="22" spans="5:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="40" t="s">
         <v>121</v>
       </c>
       <c r="F22" s="25" t="s">
@@ -3489,7 +3705,7 @@
       <c r="L22" s="20">
         <v>20</v>
       </c>
-      <c r="M22" s="59"/>
+      <c r="M22" s="47"/>
       <c r="N22" s="22"/>
       <c r="O22" s="23">
         <v>0</v>
@@ -3509,7 +3725,7 @@
       <c r="T22" s="20">
         <v>20</v>
       </c>
-      <c r="U22" s="59"/>
+      <c r="U22" s="47"/>
       <c r="V22" s="22"/>
       <c r="W22" s="21">
         <v>0</v>
@@ -3529,11 +3745,11 @@
       <c r="AB22" s="20">
         <v>20</v>
       </c>
-      <c r="AC22" s="59"/>
+      <c r="AC22" s="47"/>
       <c r="AD22" s="22"/>
     </row>
     <row r="23" spans="5:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="40" t="s">
         <v>122</v>
       </c>
       <c r="F23" s="25" t="s">
@@ -3557,7 +3773,7 @@
       <c r="L23" s="20">
         <v>10</v>
       </c>
-      <c r="M23" s="59"/>
+      <c r="M23" s="47"/>
       <c r="N23" s="22"/>
       <c r="O23" s="21">
         <v>0</v>
@@ -3577,7 +3793,7 @@
       <c r="T23" s="20">
         <v>11</v>
       </c>
-      <c r="U23" s="59"/>
+      <c r="U23" s="47"/>
       <c r="V23" s="22"/>
       <c r="W23" s="21">
         <v>0</v>
@@ -3597,11 +3813,11 @@
       <c r="AB23" s="20">
         <v>32</v>
       </c>
-      <c r="AC23" s="59"/>
+      <c r="AC23" s="47"/>
       <c r="AD23" s="22"/>
     </row>
     <row r="24" spans="5:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="40" t="s">
         <v>153</v>
       </c>
       <c r="F24" s="25" t="s">
@@ -3625,7 +3841,7 @@
       <c r="L24" s="20">
         <v>10</v>
       </c>
-      <c r="M24" s="59"/>
+      <c r="M24" s="47"/>
       <c r="N24" s="22"/>
       <c r="O24" s="21">
         <v>0</v>
@@ -3645,7 +3861,7 @@
       <c r="T24" s="20">
         <v>11</v>
       </c>
-      <c r="U24" s="59"/>
+      <c r="U24" s="47"/>
       <c r="V24" s="22"/>
       <c r="W24" s="21">
         <v>0</v>
@@ -3665,11 +3881,11 @@
       <c r="AB24" s="20">
         <v>32</v>
       </c>
-      <c r="AC24" s="59"/>
+      <c r="AC24" s="47"/>
       <c r="AD24" s="22"/>
     </row>
     <row r="25" spans="5:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="40" t="s">
         <v>154</v>
       </c>
       <c r="F25" s="34" t="s">
@@ -3693,7 +3909,7 @@
       <c r="L25" s="20">
         <v>50</v>
       </c>
-      <c r="M25" s="59"/>
+      <c r="M25" s="47"/>
       <c r="N25" s="22"/>
       <c r="O25" s="21">
         <v>0</v>
@@ -3713,7 +3929,7 @@
       <c r="T25" s="20">
         <v>1000</v>
       </c>
-      <c r="U25" s="59"/>
+      <c r="U25" s="47"/>
       <c r="V25" s="22"/>
       <c r="W25" s="21">
         <v>0</v>
@@ -3733,11 +3949,11 @@
       <c r="AB25" s="20">
         <v>1002</v>
       </c>
-      <c r="AC25" s="59"/>
+      <c r="AC25" s="47"/>
       <c r="AD25" s="22"/>
     </row>
     <row r="26" spans="5:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="40" t="s">
         <v>155</v>
       </c>
       <c r="F26" s="34" t="s">
@@ -3761,7 +3977,7 @@
       <c r="L26" s="20">
         <v>20</v>
       </c>
-      <c r="M26" s="59"/>
+      <c r="M26" s="47"/>
       <c r="N26" s="22"/>
       <c r="O26" s="23">
         <v>0</v>
@@ -3781,7 +3997,7 @@
       <c r="T26" s="20">
         <v>21</v>
       </c>
-      <c r="U26" s="59"/>
+      <c r="U26" s="47"/>
       <c r="V26" s="22"/>
       <c r="W26" s="21">
         <v>0</v>
@@ -3801,11 +4017,11 @@
       <c r="AB26" s="20">
         <v>22</v>
       </c>
-      <c r="AC26" s="59"/>
+      <c r="AC26" s="47"/>
       <c r="AD26" s="22"/>
     </row>
     <row r="27" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="40" t="s">
         <v>156</v>
       </c>
       <c r="F27" s="34" t="s">
@@ -3829,7 +4045,7 @@
       <c r="L27" s="20">
         <v>10</v>
       </c>
-      <c r="M27" s="59"/>
+      <c r="M27" s="47"/>
       <c r="N27" s="22"/>
       <c r="O27" s="23">
         <v>0</v>
@@ -3849,7 +4065,7 @@
       <c r="T27" s="20">
         <v>21</v>
       </c>
-      <c r="U27" s="59"/>
+      <c r="U27" s="47"/>
       <c r="V27" s="22"/>
       <c r="W27" s="21">
         <v>0</v>
@@ -3869,11 +4085,11 @@
       <c r="AB27" s="20">
         <v>22</v>
       </c>
-      <c r="AC27" s="59"/>
+      <c r="AC27" s="47"/>
       <c r="AD27" s="22"/>
     </row>
     <row r="28" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="40" t="s">
         <v>157</v>
       </c>
       <c r="F28" s="34" t="s">
@@ -3897,7 +4113,7 @@
       <c r="L28" s="20">
         <v>10</v>
       </c>
-      <c r="M28" s="59"/>
+      <c r="M28" s="47"/>
       <c r="N28" s="22"/>
       <c r="O28" s="23">
         <v>1</v>
@@ -3917,7 +4133,7 @@
       <c r="T28" s="20">
         <v>21</v>
       </c>
-      <c r="U28" s="59"/>
+      <c r="U28" s="47"/>
       <c r="V28" s="22"/>
       <c r="W28" s="21">
         <v>2</v>
@@ -3937,11 +4153,11 @@
       <c r="AB28" s="20">
         <v>22</v>
       </c>
-      <c r="AC28" s="59"/>
+      <c r="AC28" s="47"/>
       <c r="AD28" s="22"/>
     </row>
     <row r="29" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="40" t="s">
         <v>164</v>
       </c>
       <c r="F29" s="34"/>
@@ -3951,7 +4167,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
       <c r="L29" s="20"/>
-      <c r="M29" s="59"/>
+      <c r="M29" s="47"/>
       <c r="N29" s="22"/>
       <c r="O29" s="23"/>
       <c r="P29" s="19"/>
@@ -3959,7 +4175,7 @@
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
       <c r="T29" s="20"/>
-      <c r="U29" s="59"/>
+      <c r="U29" s="47"/>
       <c r="V29" s="22"/>
       <c r="W29" s="21"/>
       <c r="X29" s="19"/>
@@ -3967,11 +4183,11 @@
       <c r="Z29" s="19"/>
       <c r="AA29" s="19"/>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="59"/>
+      <c r="AC29" s="47"/>
       <c r="AD29" s="22"/>
     </row>
     <row r="30" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="40" t="s">
         <v>165</v>
       </c>
       <c r="F30" s="34"/>
@@ -3981,7 +4197,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
       <c r="L30" s="20"/>
-      <c r="M30" s="59"/>
+      <c r="M30" s="47"/>
       <c r="N30" s="22"/>
       <c r="O30" s="23"/>
       <c r="P30" s="19"/>
@@ -3989,7 +4205,7 @@
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
       <c r="T30" s="20"/>
-      <c r="U30" s="59"/>
+      <c r="U30" s="47"/>
       <c r="V30" s="22"/>
       <c r="W30" s="21"/>
       <c r="X30" s="19"/>
@@ -3997,11 +4213,11 @@
       <c r="Z30" s="19"/>
       <c r="AA30" s="19"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="59"/>
+      <c r="AC30" s="47"/>
       <c r="AD30" s="22"/>
     </row>
     <row r="31" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="40" t="s">
         <v>166</v>
       </c>
       <c r="F31" s="34"/>
@@ -4011,7 +4227,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
       <c r="L31" s="20"/>
-      <c r="M31" s="59"/>
+      <c r="M31" s="47"/>
       <c r="N31" s="22"/>
       <c r="O31" s="23"/>
       <c r="P31" s="19"/>
@@ -4019,7 +4235,7 @@
       <c r="R31" s="19"/>
       <c r="S31" s="19"/>
       <c r="T31" s="20"/>
-      <c r="U31" s="59"/>
+      <c r="U31" s="47"/>
       <c r="V31" s="22"/>
       <c r="W31" s="21"/>
       <c r="X31" s="19"/>
@@ -4027,11 +4243,11 @@
       <c r="Z31" s="19"/>
       <c r="AA31" s="19"/>
       <c r="AB31" s="20"/>
-      <c r="AC31" s="59"/>
+      <c r="AC31" s="47"/>
       <c r="AD31" s="22"/>
     </row>
     <row r="32" spans="5:30" x14ac:dyDescent="0.25">
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="40" t="s">
         <v>167</v>
       </c>
       <c r="F32" s="34"/>
@@ -4041,7 +4257,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
       <c r="L32" s="20"/>
-      <c r="M32" s="59"/>
+      <c r="M32" s="47"/>
       <c r="N32" s="22"/>
       <c r="O32" s="23"/>
       <c r="P32" s="19"/>
@@ -4049,7 +4265,7 @@
       <c r="R32" s="19"/>
       <c r="S32" s="19"/>
       <c r="T32" s="20"/>
-      <c r="U32" s="59"/>
+      <c r="U32" s="47"/>
       <c r="V32" s="22"/>
       <c r="W32" s="21"/>
       <c r="X32" s="19"/>
@@ -4057,38 +4273,38 @@
       <c r="Z32" s="19"/>
       <c r="AA32" s="19"/>
       <c r="AB32" s="20"/>
-      <c r="AC32" s="59"/>
+      <c r="AC32" s="47"/>
       <c r="AD32" s="22"/>
     </row>
     <row r="33" spans="5:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="F33" s="50"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="60"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="60"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="42"/>
-      <c r="AB33" s="43"/>
-      <c r="AC33" s="60"/>
-      <c r="AD33" s="44"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/TESTCASES/MSD_Project_Notes_Updated.xlsx
+++ b/TESTCASES/MSD_Project_Notes_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSD\PROJECT1\MSD\TESTCASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5DC869-FE7D-4D8A-8027-D5CC5355B95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775195C8-DCC9-45EE-8470-612C8053EA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FCDD92B1-2F49-4B23-9115-79F9BBEC6A93}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="190">
   <si>
     <t>ROW</t>
   </si>
@@ -569,25 +569,54 @@
     <t>Other Access</t>
   </si>
   <si>
-    <t>tRCD+CL+tBURST</t>
-  </si>
-  <si>
-    <t>tCCDL+CL+tBURST</t>
-  </si>
-  <si>
-    <t>tRCD+CL+tBURST+tRRDL</t>
-  </si>
-  <si>
-    <t>tRCD+CL+tBURST+tRRDS</t>
-  </si>
-  <si>
-    <t>tRTP+tRTP(Additional)</t>
-  </si>
-  <si>
     <t>1-Same</t>
   </si>
   <si>
     <t>0-Different</t>
+  </si>
+  <si>
+    <t>tCCDL</t>
+  </si>
+  <si>
+    <t>tRCD+tRRDL+tCCDL</t>
+  </si>
+  <si>
+    <t>tRCD+tRRDS+tCCDS</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>tRP+tRTP(Additional)</t>
+  </si>
+  <si>
+    <t>tRP+tWR(Additional)</t>
+  </si>
+  <si>
+    <t>tCCDL+tWTRL</t>
+  </si>
+  <si>
+    <t>tRCD+tRRDL+tCCDL+tWTRL</t>
+  </si>
+  <si>
+    <t>tRCD+tRRDS+tCCDS+tWTRS</t>
+  </si>
+  <si>
+    <t>A
+(Read)</t>
+  </si>
+  <si>
+    <t>B
+(write)</t>
+  </si>
+  <si>
+    <t>C
+(IF)</t>
+  </si>
+  <si>
+    <t>D
+(W-&gt;R)
+(W-&gt;IF)</t>
   </si>
 </sst>
 </file>
@@ -641,7 +670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1145,10 +1174,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1158,26 +1187,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1187,7 +1203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1263,6 +1279,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1274,6 +1293,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1299,24 +1321,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1631,47 +1670,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA93103-3926-484A-A580-67BFEC347CB4}">
-  <dimension ref="B1:AA19"/>
+  <dimension ref="B1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" customWidth="1"/>
+    <col min="20" max="20" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="E2" s="51" t="s">
+      <c r="C2" s="51"/>
+      <c r="E2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="52"/>
+      <c r="F2" s="53"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1703,7 +1747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1746,24 +1790,27 @@
       <c r="R3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="62" t="s">
+      <c r="T3" s="68" t="s">
+        <v>180</v>
+      </c>
+      <c r="U3" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="U3" s="63" t="s">
+      <c r="V3" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="V3" s="63" t="s">
+      <c r="W3" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="W3" s="64" t="s">
+      <c r="X3" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="X3" s="49" t="s">
+      <c r="Y3" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="Y3" s="50"/>
-    </row>
-    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z3" s="64"/>
+    </row>
+    <row r="4" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
@@ -1788,21 +1835,19 @@
       <c r="R4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="65"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="67" t="s">
+      <c r="T4" s="71"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="Y4" s="68" t="s">
+      <c r="Z4" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1821,27 +1866,27 @@
       <c r="R5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="T5" s="61">
-        <v>1</v>
-      </c>
-      <c r="U5" s="44">
-        <v>1</v>
-      </c>
-      <c r="V5" s="44">
-        <v>1</v>
-      </c>
-      <c r="W5" s="44">
-        <v>1</v>
-      </c>
-      <c r="X5" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y5" s="29"/>
-      <c r="AA5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="T5" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="U5" s="75">
+        <v>1</v>
+      </c>
+      <c r="V5" s="76">
+        <v>1</v>
+      </c>
+      <c r="W5" s="76">
+        <v>1</v>
+      </c>
+      <c r="X5" s="76">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z5" s="77"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1860,24 +1905,25 @@
       <c r="R6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="T6" s="23">
-        <v>1</v>
-      </c>
-      <c r="U6" s="20">
+      <c r="T6" s="69"/>
+      <c r="U6" s="66">
         <v>1</v>
       </c>
       <c r="V6" s="20">
         <v>1</v>
       </c>
       <c r="W6" s="20">
-        <v>0</v>
-      </c>
-      <c r="X6" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y6" s="22"/>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="X6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z6" s="22"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
@@ -1896,26 +1942,27 @@
       <c r="R7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T7" s="23">
-        <v>1</v>
-      </c>
-      <c r="U7" s="20">
+      <c r="T7" s="69"/>
+      <c r="U7" s="66">
         <v>1</v>
       </c>
       <c r="V7" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="20">
         <v>0</v>
       </c>
-      <c r="X7" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y7" s="22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="X7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z7" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1934,11 +1981,9 @@
       <c r="R8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="T8" s="23">
-        <v>1</v>
-      </c>
-      <c r="U8" s="20">
-        <v>0</v>
+      <c r="T8" s="69"/>
+      <c r="U8" s="66">
+        <v>1</v>
       </c>
       <c r="V8" s="20">
         <v>0</v>
@@ -1946,14 +1991,17 @@
       <c r="W8" s="20">
         <v>0</v>
       </c>
-      <c r="X8" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y8" s="22" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z8" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="7" t="s">
         <v>23</v>
       </c>
@@ -1972,10 +2020,8 @@
       <c r="R9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="39">
-        <v>0</v>
-      </c>
-      <c r="U9" s="36">
+      <c r="T9" s="59"/>
+      <c r="U9" s="67">
         <v>0</v>
       </c>
       <c r="V9" s="36">
@@ -1984,14 +2030,17 @@
       <c r="W9" s="36">
         <v>0</v>
       </c>
-      <c r="X9" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y9" s="22" t="s">
+      <c r="X9" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="36" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="Z9" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E10" s="7" t="s">
         <v>24</v>
       </c>
@@ -2010,8 +2059,27 @@
       <c r="R10" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="T10" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="U10" s="70">
+        <v>1</v>
+      </c>
+      <c r="V10" s="44">
+        <v>1</v>
+      </c>
+      <c r="W10" s="44">
+        <v>1</v>
+      </c>
+      <c r="X10" s="44">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" s="29"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E11" s="7" t="s">
         <v>25</v>
       </c>
@@ -2030,8 +2098,25 @@
       <c r="R11" s="14" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T11" s="69"/>
+      <c r="U11" s="66">
+        <v>1</v>
+      </c>
+      <c r="V11" s="20">
+        <v>1</v>
+      </c>
+      <c r="W11" s="20">
+        <v>1</v>
+      </c>
+      <c r="X11" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z11" s="22"/>
+    </row>
+    <row r="12" spans="2:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="8" t="s">
         <v>20</v>
       </c>
@@ -2050,8 +2135,27 @@
       <c r="R12" s="15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="T12" s="69"/>
+      <c r="U12" s="66">
+        <v>1</v>
+      </c>
+      <c r="V12" s="20">
+        <v>1</v>
+      </c>
+      <c r="W12" s="20">
+        <v>0</v>
+      </c>
+      <c r="X12" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z12" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O13" s="18" t="s">
         <v>61</v>
       </c>
@@ -2064,8 +2168,27 @@
       <c r="R13" s="14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="T13" s="69"/>
+      <c r="U13" s="66">
+        <v>1</v>
+      </c>
+      <c r="V13" s="20">
+        <v>0</v>
+      </c>
+      <c r="W13" s="20">
+        <v>0</v>
+      </c>
+      <c r="X13" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z13" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O14" s="18" t="s">
         <v>64</v>
       </c>
@@ -2078,8 +2201,27 @@
       <c r="R14" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="T14" s="59"/>
+      <c r="U14" s="67">
+        <v>0</v>
+      </c>
+      <c r="V14" s="36">
+        <v>0</v>
+      </c>
+      <c r="W14" s="36">
+        <v>0</v>
+      </c>
+      <c r="X14" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z14" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O15" s="18" t="s">
         <v>66</v>
       </c>
@@ -2092,8 +2234,27 @@
       <c r="R15" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="T15" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="U15" s="75">
+        <v>1</v>
+      </c>
+      <c r="V15" s="76">
+        <v>1</v>
+      </c>
+      <c r="W15" s="76">
+        <v>1</v>
+      </c>
+      <c r="X15" s="76">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z15" s="77"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O16" s="18" t="s">
         <v>68</v>
       </c>
@@ -2106,8 +2267,25 @@
       <c r="R16" s="14" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="T16" s="69"/>
+      <c r="U16" s="66">
+        <v>1</v>
+      </c>
+      <c r="V16" s="20">
+        <v>1</v>
+      </c>
+      <c r="W16" s="20">
+        <v>1</v>
+      </c>
+      <c r="X16" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z16" s="22"/>
+    </row>
+    <row r="17" spans="15:26" x14ac:dyDescent="0.25">
       <c r="O17" s="18" t="s">
         <v>71</v>
       </c>
@@ -2120,8 +2298,27 @@
       <c r="R17" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="T17" s="69"/>
+      <c r="U17" s="66">
+        <v>1</v>
+      </c>
+      <c r="V17" s="20">
+        <v>1</v>
+      </c>
+      <c r="W17" s="20">
+        <v>0</v>
+      </c>
+      <c r="X17" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z17" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="15:26" x14ac:dyDescent="0.25">
       <c r="O18" s="18" t="s">
         <v>73</v>
       </c>
@@ -2134,8 +2331,27 @@
       <c r="R18" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="T18" s="69"/>
+      <c r="U18" s="66">
+        <v>1</v>
+      </c>
+      <c r="V18" s="20">
+        <v>0</v>
+      </c>
+      <c r="W18" s="20">
+        <v>0</v>
+      </c>
+      <c r="X18" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z18" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="15:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O19" s="18" t="s">
         <v>75</v>
       </c>
@@ -2148,16 +2364,153 @@
       <c r="R19" s="14" t="s">
         <v>78</v>
       </c>
+      <c r="T19" s="59"/>
+      <c r="U19" s="67">
+        <v>0</v>
+      </c>
+      <c r="V19" s="36">
+        <v>0</v>
+      </c>
+      <c r="W19" s="36">
+        <v>0</v>
+      </c>
+      <c r="X19" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z19" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="T20" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="U20" s="75">
+        <v>1</v>
+      </c>
+      <c r="V20" s="76">
+        <v>1</v>
+      </c>
+      <c r="W20" s="76">
+        <v>1</v>
+      </c>
+      <c r="X20" s="76">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z20" s="77"/>
+    </row>
+    <row r="21" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="T21" s="69"/>
+      <c r="U21" s="66">
+        <v>1</v>
+      </c>
+      <c r="V21" s="20">
+        <v>1</v>
+      </c>
+      <c r="W21" s="20">
+        <v>1</v>
+      </c>
+      <c r="X21" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z21" s="22"/>
+    </row>
+    <row r="22" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="T22" s="69"/>
+      <c r="U22" s="66">
+        <v>1</v>
+      </c>
+      <c r="V22" s="20">
+        <v>1</v>
+      </c>
+      <c r="W22" s="20">
+        <v>0</v>
+      </c>
+      <c r="X22" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z22" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="T23" s="69"/>
+      <c r="U23" s="66">
+        <v>1</v>
+      </c>
+      <c r="V23" s="20">
+        <v>0</v>
+      </c>
+      <c r="W23" s="20">
+        <v>0</v>
+      </c>
+      <c r="X23" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z23" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="15:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T24" s="59"/>
+      <c r="U24" s="67">
+        <v>0</v>
+      </c>
+      <c r="V24" s="36">
+        <v>0</v>
+      </c>
+      <c r="W24" s="36">
+        <v>0</v>
+      </c>
+      <c r="X24" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z24" s="22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="Y27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="15:26" x14ac:dyDescent="0.25">
+      <c r="Y28" t="s">
+        <v>176</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:Y3"/>
+  <mergeCells count="12">
+    <mergeCell ref="T5:T9"/>
+    <mergeCell ref="T15:T19"/>
+    <mergeCell ref="T10:T14"/>
+    <mergeCell ref="T20:T24"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2265,61 +2618,61 @@
       <c r="C2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="58">
-        <v>1</v>
-      </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="58">
+      <c r="G2" s="60">
+        <v>1</v>
+      </c>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="60">
         <v>2</v>
       </c>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="60"/>
-      <c r="W2" s="58">
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="62"/>
+      <c r="W2" s="60">
         <v>3</v>
       </c>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="62"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
     </row>
     <row r="3" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="59"/>
       <c r="G3" s="30" t="s">
         <v>128</v>
       </c>

--- a/TESTCASES/MSD_Project_Notes_Updated.xlsx
+++ b/TESTCASES/MSD_Project_Notes_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSD\PROJECT1\MSD\TESTCASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775195C8-DCC9-45EE-8470-612C8053EA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35053AF5-87B3-4E82-93EF-4704CDF1688C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FCDD92B1-2F49-4B23-9115-79F9BBEC6A93}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="191">
   <si>
     <t>ROW</t>
   </si>
@@ -617,6 +617,9 @@
     <t>D
 (W-&gt;R)
 (W-&gt;IF)</t>
+  </si>
+  <si>
+    <t>][</t>
   </si>
 </sst>
 </file>
@@ -1670,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA93103-3926-484A-A580-67BFEC347CB4}">
-  <dimension ref="B1:Z28"/>
+  <dimension ref="B1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView tabSelected="1" topLeftCell="R6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,8 +1709,8 @@
     <col min="32" max="32" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="50" t="s">
         <v>10</v>
       </c>
@@ -1747,7 +1750,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1810,7 +1813,7 @@
       </c>
       <c r="Z3" s="64"/>
     </row>
-    <row r="4" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
@@ -1847,7 +1850,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1886,7 +1889,7 @@
       </c>
       <c r="Z5" s="77"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1923,7 +1926,7 @@
       </c>
       <c r="Z6" s="22"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E8" s="7" t="s">
         <v>22</v>
       </c>
@@ -2001,7 +2004,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="7" t="s">
         <v>23</v>
       </c>
@@ -2040,7 +2043,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E10" s="7" t="s">
         <v>24</v>
       </c>
@@ -2078,8 +2081,11 @@
         <v>55</v>
       </c>
       <c r="Z10" s="29"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="AA10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="E11" s="7" t="s">
         <v>25</v>
       </c>
@@ -2116,7 +2122,7 @@
       </c>
       <c r="Z11" s="22"/>
     </row>
-    <row r="12" spans="2:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="8" t="s">
         <v>20</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="O13" s="18" t="s">
         <v>61</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O14" s="18" t="s">
         <v>64</v>
       </c>
@@ -2221,7 +2227,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="O15" s="18" t="s">
         <v>66</v>
       </c>
@@ -2254,7 +2260,7 @@
       </c>
       <c r="Z15" s="77"/>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="O16" s="18" t="s">
         <v>68</v>
       </c>
@@ -2442,7 +2448,7 @@
         <v>184</v>
       </c>
       <c r="Z22" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="15:26" x14ac:dyDescent="0.25">
@@ -2463,7 +2469,7 @@
         <v>184</v>
       </c>
       <c r="Z23" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="15:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2484,7 +2490,7 @@
         <v>185</v>
       </c>
       <c r="Z24" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="15:26" x14ac:dyDescent="0.25">

--- a/TESTCASES/MSD_Project_Notes_Updated.xlsx
+++ b/TESTCASES/MSD_Project_Notes_Updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSD\PROJECT1\MSD\TESTCASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35053AF5-87B3-4E82-93EF-4704CDF1688C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEC1500-67BA-43DB-B033-1C6929A0DBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FCDD92B1-2F49-4B23-9115-79F9BBEC6A93}"/>
   </bookViews>
@@ -647,7 +647,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,6 +672,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="40">
     <border>
@@ -1206,7 +1212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1359,6 +1365,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1675,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA93103-3926-484A-A580-67BFEC347CB4}">
   <dimension ref="B1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,12 +2501,12 @@
       </c>
     </row>
     <row r="27" spans="15:26" x14ac:dyDescent="0.25">
-      <c r="Y27" t="s">
+      <c r="Y27" s="80" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="28" spans="15:26" x14ac:dyDescent="0.25">
-      <c r="Y28" t="s">
+      <c r="Y28" s="80" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2534,7 +2541,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="91" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2568,7 +2575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00540E82-C942-4C51-B076-78D9BC70138E}">
   <dimension ref="B1:AP33"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>

--- a/TESTCASES/MSD_Project_Notes_Updated.xlsx
+++ b/TESTCASES/MSD_Project_Notes_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSD\PROJECT1\MSD\TESTCASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEC1500-67BA-43DB-B033-1C6929A0DBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5CD145-316D-438F-BF83-6BA9FF19AB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FCDD92B1-2F49-4B23-9115-79F9BBEC6A93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FCDD92B1-2F49-4B23-9115-79F9BBEC6A93}"/>
   </bookViews>
   <sheets>
     <sheet name="SPECS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="193">
   <si>
     <t>ROW</t>
   </si>
@@ -470,13 +470,6 @@
   <si>
     <t>Writing back to back and reading to check last 
 updated value is read</t>
-  </si>
-  <si>
-    <t>Prioritizing reads over writes(not sure)</t>
-  </si>
-  <si>
-    <t>Prioritizing reads over writes(not sure) at the
- same time</t>
   </si>
   <si>
     <t>Reading the same column at the same time</t>
@@ -620,6 +613,20 @@
   </si>
   <si>
     <t>][</t>
+  </si>
+  <si>
+    <t>Accesses to same row after some instructions(Adpative)</t>
+  </si>
+  <si>
+    <t>Prioritizing reads over writes</t>
+  </si>
+  <si>
+    <t>Prioritizing reads over writes at the
+ same time</t>
+  </si>
+  <si>
+    <t>Accesses to different bankgroups after some 
+instructions(Adpative)</t>
   </si>
 </sst>
 </file>
@@ -1682,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA93103-3926-484A-A580-67BFEC347CB4}">
   <dimension ref="B1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,10 +1808,10 @@
         <v>32</v>
       </c>
       <c r="T3" s="68" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="U3" s="65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="V3" s="54" t="s">
         <v>129</v>
@@ -1816,7 +1823,7 @@
         <v>131</v>
       </c>
       <c r="Y3" s="63" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="Z3" s="64"/>
     </row>
@@ -1851,10 +1858,10 @@
       <c r="W4" s="49"/>
       <c r="X4" s="49"/>
       <c r="Y4" s="73" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Z4" s="74" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.25">
@@ -1877,7 +1884,7 @@
         <v>38</v>
       </c>
       <c r="T5" s="78" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="U5" s="75">
         <v>1</v>
@@ -1929,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="Y6" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Z6" s="22"/>
     </row>
@@ -1966,10 +1973,10 @@
         <v>0</v>
       </c>
       <c r="Y7" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z7" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">
@@ -2005,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="Y8" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z8" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2044,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="Y9" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z9" s="22" t="s">
         <v>179</v>
-      </c>
-      <c r="Z9" s="22" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.25">
@@ -2070,7 +2077,7 @@
         <v>54</v>
       </c>
       <c r="T10" s="79" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="U10" s="70">
         <v>1</v>
@@ -2089,7 +2096,7 @@
       </c>
       <c r="Z10" s="29"/>
       <c r="AA10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.25">
@@ -2125,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Z11" s="22"/>
     </row>
@@ -2162,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="Y12" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z12" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.25">
@@ -2195,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="Y13" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z13" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2228,10 +2235,10 @@
         <v>0</v>
       </c>
       <c r="Y14" s="36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Z14" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
@@ -2248,7 +2255,7 @@
         <v>41</v>
       </c>
       <c r="T15" s="78" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="U15" s="75">
         <v>1</v>
@@ -2294,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="Z16" s="22"/>
     </row>
@@ -2325,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="Y17" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z17" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="15:26" x14ac:dyDescent="0.25">
@@ -2358,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="Y18" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Z18" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="15:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2391,15 +2398,15 @@
         <v>0</v>
       </c>
       <c r="Y19" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z19" s="22" t="s">
         <v>179</v>
-      </c>
-      <c r="Z19" s="22" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="20" spans="15:26" x14ac:dyDescent="0.25">
       <c r="T20" s="78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="U20" s="75">
         <v>1</v>
@@ -2433,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Z21" s="22"/>
     </row>
@@ -2452,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="Y22" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Z22" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="15:26" x14ac:dyDescent="0.25">
@@ -2473,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="Y23" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Z23" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="15:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2494,20 +2501,20 @@
         <v>0</v>
       </c>
       <c r="Y24" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Z24" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="15:26" x14ac:dyDescent="0.25">
       <c r="Y27" s="80" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="15:26" x14ac:dyDescent="0.25">
       <c r="Y28" s="80" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2575,8 +2582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00540E82-C942-4C51-B076-78D9BC70138E}">
   <dimension ref="B1:AP33"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,10 +2712,10 @@
         <v>133</v>
       </c>
       <c r="M3" s="45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N3" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O3" s="30" t="s">
         <v>128</v>
@@ -2729,10 +2736,10 @@
         <v>133</v>
       </c>
       <c r="U3" s="45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="V3" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="W3" s="30" t="s">
         <v>128</v>
@@ -2753,10 +2760,10 @@
         <v>133</v>
       </c>
       <c r="AC3" s="45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AD3" s="32" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AE3" s="33"/>
       <c r="AF3" s="33"/>
@@ -3507,7 +3514,7 @@
         <v>113</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="G14" s="23">
         <v>0</v>
@@ -3575,7 +3582,7 @@
         <v>114</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="G15" s="23">
         <v>0</v>
@@ -3643,7 +3650,7 @@
         <v>115</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G16" s="23">
         <v>0</v>
@@ -3711,7 +3718,7 @@
         <v>116</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G17" s="23">
         <v>0</v>
@@ -3779,7 +3786,7 @@
         <v>117</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G18" s="23">
         <v>0</v>
@@ -3847,7 +3854,7 @@
         <v>118</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G19" s="23">
         <v>0</v>
@@ -3915,7 +3922,7 @@
         <v>119</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G20" s="21">
         <v>0</v>
@@ -3983,7 +3990,7 @@
         <v>120</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G21" s="21">
         <v>0</v>
@@ -4051,7 +4058,7 @@
         <v>121</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G22" s="21">
         <v>0</v>
@@ -4119,7 +4126,7 @@
         <v>122</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G23" s="21">
         <v>0</v>
@@ -4184,10 +4191,10 @@
     </row>
     <row r="24" spans="5:30" ht="45" x14ac:dyDescent="0.25">
       <c r="E24" s="40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G24" s="21">
         <v>0</v>
@@ -4252,10 +4259,10 @@
     </row>
     <row r="25" spans="5:30" ht="45" x14ac:dyDescent="0.25">
       <c r="E25" s="40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F25" s="34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G25" s="21">
         <v>0</v>
@@ -4320,10 +4327,10 @@
     </row>
     <row r="26" spans="5:30" ht="30" x14ac:dyDescent="0.25">
       <c r="E26" s="40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G26" s="21">
         <v>0</v>
@@ -4388,10 +4395,10 @@
     </row>
     <row r="27" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E27" s="40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G27" s="21">
         <v>0</v>
@@ -4456,10 +4463,10 @@
     </row>
     <row r="28" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E28" s="40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G28" s="21">
         <v>0</v>
@@ -4524,67 +4531,143 @@
     </row>
     <row r="29" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E29" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="20"/>
+        <v>162</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" s="21">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19">
+        <v>1</v>
+      </c>
+      <c r="I29" s="19">
+        <v>100</v>
+      </c>
+      <c r="J29" s="19">
+        <v>128</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L29" s="20">
+        <v>10</v>
+      </c>
       <c r="M29" s="47"/>
       <c r="N29" s="22"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="20"/>
+      <c r="O29" s="23">
+        <v>0</v>
+      </c>
+      <c r="P29" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>100</v>
+      </c>
+      <c r="R29" s="19">
+        <v>128</v>
+      </c>
+      <c r="S29" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="T29" s="20">
+        <v>11</v>
+      </c>
       <c r="U29" s="47"/>
       <c r="V29" s="22"/>
-      <c r="W29" s="21"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="20"/>
+      <c r="W29" s="21">
+        <v>0</v>
+      </c>
+      <c r="X29" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z29" s="19">
+        <v>255</v>
+      </c>
+      <c r="AA29" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB29" s="20">
+        <v>12</v>
+      </c>
       <c r="AC29" s="47"/>
       <c r="AD29" s="22"/>
     </row>
-    <row r="30" spans="5:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:30" ht="30" x14ac:dyDescent="0.25">
       <c r="E30" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
+        <v>163</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="21">
+        <v>0</v>
+      </c>
+      <c r="H30" s="19">
+        <v>1</v>
+      </c>
+      <c r="I30" s="19">
+        <v>100</v>
+      </c>
+      <c r="J30" s="19">
+        <v>128</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L30" s="20">
+        <v>10</v>
+      </c>
       <c r="M30" s="47"/>
       <c r="N30" s="22"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="20"/>
+      <c r="O30" s="23">
+        <v>0</v>
+      </c>
+      <c r="P30" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>100</v>
+      </c>
+      <c r="R30" s="19">
+        <v>128</v>
+      </c>
+      <c r="S30" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="T30" s="20">
+        <v>11</v>
+      </c>
       <c r="U30" s="47"/>
       <c r="V30" s="22"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="20"/>
+      <c r="W30" s="21">
+        <v>1</v>
+      </c>
+      <c r="X30" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z30" s="19">
+        <v>255</v>
+      </c>
+      <c r="AA30" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB30" s="20">
+        <v>12</v>
+      </c>
       <c r="AC30" s="47"/>
       <c r="AD30" s="22"/>
     </row>
     <row r="31" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E31" s="40" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="21"/>
@@ -4614,7 +4697,7 @@
     </row>
     <row r="32" spans="5:30" x14ac:dyDescent="0.25">
       <c r="E32" s="40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="21"/>
@@ -4644,7 +4727,7 @@
     </row>
     <row r="33" spans="5:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E33" s="41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="38"/>

--- a/TESTCASES/MSD_Project_Notes_Updated.xlsx
+++ b/TESTCASES/MSD_Project_Notes_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSD\PROJECT1\MSD\TESTCASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5CD145-316D-438F-BF83-6BA9FF19AB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446F7DE7-5C9A-4E81-897E-D2AFC406C966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FCDD92B1-2F49-4B23-9115-79F9BBEC6A93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FCDD92B1-2F49-4B23-9115-79F9BBEC6A93}"/>
   </bookViews>
   <sheets>
     <sheet name="SPECS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="192">
   <si>
     <t>ROW</t>
   </si>
@@ -610,9 +610,6 @@
     <t>D
 (W-&gt;R)
 (W-&gt;IF)</t>
-  </si>
-  <si>
-    <t>][</t>
   </si>
   <si>
     <t>Accesses to same row after some instructions(Adpative)</t>
@@ -1687,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA93103-3926-484A-A580-67BFEC347CB4}">
-  <dimension ref="B1:AA28"/>
+  <dimension ref="B1:Z28"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="R12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,8 +1720,8 @@
     <col min="32" max="32" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="50" t="s">
         <v>10</v>
       </c>
@@ -1764,7 +1761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1827,7 +1824,7 @@
       </c>
       <c r="Z3" s="64"/>
     </row>
-    <row r="4" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
@@ -1864,7 +1861,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1903,7 +1900,7 @@
       </c>
       <c r="Z5" s="77"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
@@ -1940,7 +1937,7 @@
       </c>
       <c r="Z6" s="22"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E7" s="7" t="s">
         <v>21</v>
       </c>
@@ -1979,7 +1976,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E8" s="7" t="s">
         <v>22</v>
       </c>
@@ -2018,7 +2015,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E9" s="7" t="s">
         <v>23</v>
       </c>
@@ -2057,7 +2054,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E10" s="7" t="s">
         <v>24</v>
       </c>
@@ -2095,11 +2092,8 @@
         <v>55</v>
       </c>
       <c r="Z10" s="29"/>
-      <c r="AA10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E11" s="7" t="s">
         <v>25</v>
       </c>
@@ -2136,7 +2130,7 @@
       </c>
       <c r="Z11" s="22"/>
     </row>
-    <row r="12" spans="2:27" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:26" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E12" s="8" t="s">
         <v>20</v>
       </c>
@@ -2175,7 +2169,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O13" s="18" t="s">
         <v>61</v>
       </c>
@@ -2208,7 +2202,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O14" s="18" t="s">
         <v>64</v>
       </c>
@@ -2241,7 +2235,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O15" s="18" t="s">
         <v>66</v>
       </c>
@@ -2274,7 +2268,7 @@
       </c>
       <c r="Z15" s="77"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O16" s="18" t="s">
         <v>68</v>
       </c>
@@ -2582,7 +2576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00540E82-C942-4C51-B076-78D9BC70138E}">
   <dimension ref="B1:AP33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -3514,7 +3508,7 @@
         <v>113</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G14" s="23">
         <v>0</v>
@@ -3582,7 +3576,7 @@
         <v>114</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G15" s="23">
         <v>0</v>
@@ -4534,7 +4528,7 @@
         <v>162</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G29" s="21">
         <v>0</v>
@@ -4602,7 +4596,7 @@
         <v>163</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G30" s="21">
         <v>0</v>

--- a/TESTCASES/MSD_Project_Notes_Updated.xlsx
+++ b/TESTCASES/MSD_Project_Notes_Updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSD\PROJECT1\MSD\TESTCASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446F7DE7-5C9A-4E81-897E-D2AFC406C966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F90D158-0BFB-4276-81C0-B3DB21D6DC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FCDD92B1-2F49-4B23-9115-79F9BBEC6A93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{FCDD92B1-2F49-4B23-9115-79F9BBEC6A93}"/>
   </bookViews>
   <sheets>
     <sheet name="SPECS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="193">
   <si>
     <t>ROW</t>
   </si>
@@ -624,6 +624,9 @@
   <si>
     <t>Accesses to different bankgroups after some 
 instructions(Adpative)</t>
+  </si>
+  <si>
+    <t>Refresh occurs when an instruction is executing</t>
   </si>
 </sst>
 </file>
@@ -1292,8 +1295,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1307,7 +1340,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1322,9 +1364,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1334,42 +1373,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1686,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA93103-3926-484A-A580-67BFEC347CB4}">
   <dimension ref="B1:Z28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA31" sqref="AA31"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,14 +1725,14 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="E2" s="52" t="s">
+      <c r="C2" s="67"/>
+      <c r="E2" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="53"/>
+      <c r="F2" s="69"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1804,25 +1807,25 @@
       <c r="R3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="68" t="s">
+      <c r="T3" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="U3" s="65" t="s">
+      <c r="U3" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="V3" s="54" t="s">
+      <c r="V3" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="W3" s="54" t="s">
+      <c r="W3" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="X3" s="54" t="s">
+      <c r="X3" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="Y3" s="63" t="s">
+      <c r="Y3" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="Z3" s="64"/>
+      <c r="Z3" s="65"/>
     </row>
     <row r="4" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
@@ -1849,15 +1852,15 @@
       <c r="R4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="T4" s="71"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="73" t="s">
+      <c r="T4" s="73"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="63"/>
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="Z4" s="74" t="s">
+      <c r="Z4" s="53" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1880,25 +1883,25 @@
       <c r="R5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="T5" s="78" t="s">
+      <c r="T5" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="U5" s="75">
-        <v>1</v>
-      </c>
-      <c r="V5" s="76">
-        <v>1</v>
-      </c>
-      <c r="W5" s="76">
-        <v>1</v>
-      </c>
-      <c r="X5" s="76">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="76" t="s">
+      <c r="U5" s="54">
+        <v>1</v>
+      </c>
+      <c r="V5" s="55">
+        <v>1</v>
+      </c>
+      <c r="W5" s="55">
+        <v>1</v>
+      </c>
+      <c r="X5" s="55">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="Z5" s="77"/>
+      <c r="Z5" s="56"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="E6" s="7" t="s">
@@ -1919,8 +1922,8 @@
       <c r="R6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="T6" s="69"/>
-      <c r="U6" s="66">
+      <c r="T6" s="59"/>
+      <c r="U6" s="49">
         <v>1</v>
       </c>
       <c r="V6" s="20">
@@ -1956,8 +1959,8 @@
       <c r="R7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="T7" s="69"/>
-      <c r="U7" s="66">
+      <c r="T7" s="59"/>
+      <c r="U7" s="49">
         <v>1</v>
       </c>
       <c r="V7" s="20">
@@ -1995,8 +1998,8 @@
       <c r="R8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="T8" s="69"/>
-      <c r="U8" s="66">
+      <c r="T8" s="59"/>
+      <c r="U8" s="49">
         <v>1</v>
       </c>
       <c r="V8" s="20">
@@ -2034,8 +2037,8 @@
       <c r="R9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="T9" s="59"/>
-      <c r="U9" s="67">
+      <c r="T9" s="60"/>
+      <c r="U9" s="50">
         <v>0</v>
       </c>
       <c r="V9" s="36">
@@ -2073,10 +2076,10 @@
       <c r="R10" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="T10" s="79" t="s">
+      <c r="T10" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="U10" s="70">
+      <c r="U10" s="51">
         <v>1</v>
       </c>
       <c r="V10" s="44">
@@ -2112,8 +2115,8 @@
       <c r="R11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="T11" s="69"/>
-      <c r="U11" s="66">
+      <c r="T11" s="59"/>
+      <c r="U11" s="49">
         <v>1</v>
       </c>
       <c r="V11" s="20">
@@ -2149,8 +2152,8 @@
       <c r="R12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T12" s="69"/>
-      <c r="U12" s="66">
+      <c r="T12" s="59"/>
+      <c r="U12" s="49">
         <v>1</v>
       </c>
       <c r="V12" s="20">
@@ -2182,8 +2185,8 @@
       <c r="R13" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="T13" s="69"/>
-      <c r="U13" s="66">
+      <c r="T13" s="59"/>
+      <c r="U13" s="49">
         <v>1</v>
       </c>
       <c r="V13" s="20">
@@ -2215,8 +2218,8 @@
       <c r="R14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="T14" s="59"/>
-      <c r="U14" s="67">
+      <c r="T14" s="60"/>
+      <c r="U14" s="50">
         <v>0</v>
       </c>
       <c r="V14" s="36">
@@ -2248,25 +2251,25 @@
       <c r="R15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="T15" s="78" t="s">
+      <c r="T15" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="U15" s="75">
-        <v>1</v>
-      </c>
-      <c r="V15" s="76">
-        <v>1</v>
-      </c>
-      <c r="W15" s="76">
-        <v>1</v>
-      </c>
-      <c r="X15" s="76">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="76" t="s">
+      <c r="U15" s="54">
+        <v>1</v>
+      </c>
+      <c r="V15" s="55">
+        <v>1</v>
+      </c>
+      <c r="W15" s="55">
+        <v>1</v>
+      </c>
+      <c r="X15" s="55">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="Z15" s="77"/>
+      <c r="Z15" s="56"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="O16" s="18" t="s">
@@ -2281,8 +2284,8 @@
       <c r="R16" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="T16" s="69"/>
-      <c r="U16" s="66">
+      <c r="T16" s="59"/>
+      <c r="U16" s="49">
         <v>1</v>
       </c>
       <c r="V16" s="20">
@@ -2312,8 +2315,8 @@
       <c r="R17" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="T17" s="69"/>
-      <c r="U17" s="66">
+      <c r="T17" s="59"/>
+      <c r="U17" s="49">
         <v>1</v>
       </c>
       <c r="V17" s="20">
@@ -2345,8 +2348,8 @@
       <c r="R18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="T18" s="69"/>
-      <c r="U18" s="66">
+      <c r="T18" s="59"/>
+      <c r="U18" s="49">
         <v>1</v>
       </c>
       <c r="V18" s="20">
@@ -2378,8 +2381,8 @@
       <c r="R19" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="T19" s="59"/>
-      <c r="U19" s="67">
+      <c r="T19" s="60"/>
+      <c r="U19" s="50">
         <v>0</v>
       </c>
       <c r="V19" s="36">
@@ -2399,29 +2402,29 @@
       </c>
     </row>
     <row r="20" spans="15:26" x14ac:dyDescent="0.25">
-      <c r="T20" s="78" t="s">
+      <c r="T20" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="U20" s="75">
-        <v>1</v>
-      </c>
-      <c r="V20" s="76">
-        <v>1</v>
-      </c>
-      <c r="W20" s="76">
-        <v>1</v>
-      </c>
-      <c r="X20" s="76">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="76" t="s">
+      <c r="U20" s="54">
+        <v>1</v>
+      </c>
+      <c r="V20" s="55">
+        <v>1</v>
+      </c>
+      <c r="W20" s="55">
+        <v>1</v>
+      </c>
+      <c r="X20" s="55">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="Z20" s="77"/>
+      <c r="Z20" s="56"/>
     </row>
     <row r="21" spans="15:26" x14ac:dyDescent="0.25">
-      <c r="T21" s="69"/>
-      <c r="U21" s="66">
+      <c r="T21" s="59"/>
+      <c r="U21" s="49">
         <v>1</v>
       </c>
       <c r="V21" s="20">
@@ -2439,8 +2442,8 @@
       <c r="Z21" s="22"/>
     </row>
     <row r="22" spans="15:26" x14ac:dyDescent="0.25">
-      <c r="T22" s="69"/>
-      <c r="U22" s="66">
+      <c r="T22" s="59"/>
+      <c r="U22" s="49">
         <v>1</v>
       </c>
       <c r="V22" s="20">
@@ -2460,8 +2463,8 @@
       </c>
     </row>
     <row r="23" spans="15:26" x14ac:dyDescent="0.25">
-      <c r="T23" s="69"/>
-      <c r="U23" s="66">
+      <c r="T23" s="59"/>
+      <c r="U23" s="49">
         <v>1</v>
       </c>
       <c r="V23" s="20">
@@ -2481,8 +2484,8 @@
       </c>
     </row>
     <row r="24" spans="15:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="T24" s="59"/>
-      <c r="U24" s="67">
+      <c r="T24" s="60"/>
+      <c r="U24" s="50">
         <v>0</v>
       </c>
       <c r="V24" s="36">
@@ -2502,22 +2505,17 @@
       </c>
     </row>
     <row r="27" spans="15:26" x14ac:dyDescent="0.25">
-      <c r="Y27" s="80" t="s">
+      <c r="Y27" s="57" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="28" spans="15:26" x14ac:dyDescent="0.25">
-      <c r="Y28" s="80" t="s">
+      <c r="Y28" s="57" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="T5:T9"/>
-    <mergeCell ref="T15:T19"/>
-    <mergeCell ref="T10:T14"/>
-    <mergeCell ref="T20:T24"/>
-    <mergeCell ref="X3:X4"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
@@ -2525,6 +2523,11 @@
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T5:T9"/>
+    <mergeCell ref="T15:T19"/>
+    <mergeCell ref="T10:T14"/>
+    <mergeCell ref="T20:T24"/>
+    <mergeCell ref="X3:X4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2576,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00540E82-C942-4C51-B076-78D9BC70138E}">
   <dimension ref="B1:AP33"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2599,7 +2602,7 @@
     <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.140625" bestFit="1" customWidth="1"/>
@@ -2607,7 +2610,7 @@
     <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -2632,61 +2635,61 @@
       <c r="C2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="60">
-        <v>1</v>
-      </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="60">
+      <c r="G2" s="78">
+        <v>1</v>
+      </c>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="78">
         <v>2</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="60">
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="78">
         <v>3</v>
       </c>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="55"/>
-      <c r="AF2" s="55"/>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="55"/>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="55"/>
-      <c r="AP2" s="55"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="74"/>
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+      <c r="AM2" s="74"/>
+      <c r="AN2" s="74"/>
+      <c r="AO2" s="74"/>
+      <c r="AP2" s="74"/>
     </row>
     <row r="3" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="59"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="60"/>
       <c r="G3" s="30" t="s">
         <v>128</v>
       </c>
@@ -4663,29 +4666,67 @@
       <c r="E31" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="20"/>
+      <c r="F31" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" s="21">
+        <v>0</v>
+      </c>
+      <c r="H31" s="19">
+        <v>1</v>
+      </c>
+      <c r="I31" s="19">
+        <v>100</v>
+      </c>
+      <c r="J31" s="19">
+        <v>128</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="L31" s="20">
+        <v>10</v>
+      </c>
       <c r="M31" s="47"/>
       <c r="N31" s="22"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="19"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="19"/>
-      <c r="T31" s="20"/>
+      <c r="O31" s="23">
+        <v>0</v>
+      </c>
+      <c r="P31" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="19">
+        <v>100</v>
+      </c>
+      <c r="R31" s="19">
+        <v>128</v>
+      </c>
+      <c r="S31" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="T31" s="20">
+        <v>24950</v>
+      </c>
       <c r="U31" s="47"/>
       <c r="V31" s="22"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="20"/>
+      <c r="W31" s="21">
+        <v>1</v>
+      </c>
+      <c r="X31" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="19">
+        <v>100</v>
+      </c>
+      <c r="Z31" s="19">
+        <v>255</v>
+      </c>
+      <c r="AA31" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB31" s="20">
+        <v>25000</v>
+      </c>
       <c r="AC31" s="47"/>
       <c r="AD31" s="22"/>
     </row>
